--- a/ProcessedData/conf_svm_early_fusion_4.xlsx
+++ b/ProcessedData/conf_svm_early_fusion_4.xlsx
@@ -14,18 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>video_number</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t>prediction</t>
@@ -393,20 +384,20 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="1">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -414,13 +405,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.304670061083407</v>
+        <v>0.01862197297579427</v>
       </c>
       <c r="C2">
-        <v>5.367164732204063</v>
+        <v>2.040243953408765</v>
       </c>
       <c r="D2">
-        <v>-4.94204551451922</v>
+        <v>-2.475714205484143</v>
+      </c>
+      <c r="E2">
+        <v>28</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -431,13 +425,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.2634421828618101</v>
+        <v>0.4913619734418092</v>
       </c>
       <c r="C3">
-        <v>4.159688161318152</v>
+        <v>1.024432589090269</v>
       </c>
       <c r="D3">
-        <v>-3.280170346816921</v>
+        <v>-1.02624221039141</v>
+      </c>
+      <c r="E3">
+        <v>28</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -448,13 +445,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.3854173849272815</v>
+        <v>-0.2749141418669117</v>
       </c>
       <c r="C4">
-        <v>2.753619651086018</v>
+        <v>0.4334460351958055</v>
       </c>
       <c r="D4">
-        <v>-1.530339826799939</v>
+        <v>-0.6173741671944671</v>
+      </c>
+      <c r="E4">
+        <v>28</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -465,13 +465,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-1.574215341508485</v>
+        <v>-0.2080129923242987</v>
       </c>
       <c r="C5">
-        <v>2.939489130945003</v>
+        <v>0.6203666668716347</v>
       </c>
       <c r="D5">
-        <v>-2.315765453824024</v>
+        <v>-0.4228313436615596</v>
+      </c>
+      <c r="E5">
+        <v>28</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -482,13 +485,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.9467875959379342</v>
+        <v>-0.7094703159934602</v>
       </c>
       <c r="C6">
-        <v>4.305202195353989</v>
+        <v>1.134229879202472</v>
       </c>
       <c r="D6">
-        <v>-2.042464201140596</v>
+        <v>-0.5706508875163502</v>
+      </c>
+      <c r="E6">
+        <v>28</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -499,13 +505,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.06981311061136797</v>
+        <v>-0.3938121891361879</v>
       </c>
       <c r="C7">
-        <v>3.47738952338032</v>
+        <v>0.7750078758612038</v>
       </c>
       <c r="D7">
-        <v>-2.244778790396375</v>
+        <v>-0.533798550773283</v>
+      </c>
+      <c r="E7">
+        <v>28</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -516,13 +525,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.1904459505990304</v>
+        <v>-0.7951212372981301</v>
       </c>
       <c r="C8">
-        <v>3.831412950094285</v>
+        <v>0.7370981386173903</v>
       </c>
       <c r="D8">
-        <v>-1.348382429620004</v>
+        <v>-0.5543138222208138</v>
+      </c>
+      <c r="E8">
+        <v>28</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -533,13 +545,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.8482659215635976</v>
+        <v>-0.9611688977991739</v>
       </c>
       <c r="C9">
-        <v>3.559385811695603</v>
+        <v>1.165426650096181</v>
       </c>
       <c r="D9">
-        <v>-1.680663389219154</v>
+        <v>-0.4713815725157905</v>
+      </c>
+      <c r="E9">
+        <v>28</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -550,13 +565,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-1.286190418952215</v>
+        <v>0.1201888767726057</v>
       </c>
       <c r="C10">
-        <v>3.587154546230612</v>
+        <v>0.7807259423412112</v>
       </c>
       <c r="D10">
-        <v>-2.844347723227091</v>
+        <v>-0.3421734825123571</v>
+      </c>
+      <c r="E10">
+        <v>28</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -567,13 +585,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-1.236408538965176</v>
+        <v>-0.3480157971490813</v>
       </c>
       <c r="C11">
-        <v>5.80283519890529</v>
+        <v>1.818997834991692</v>
       </c>
       <c r="D11">
-        <v>-3.481303623343261</v>
+        <v>-1.093829079559211</v>
+      </c>
+      <c r="E11">
+        <v>28</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -584,13 +605,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.05564900854742505</v>
+        <v>0.2637817917213433</v>
       </c>
       <c r="C12">
-        <v>3.175624372714679</v>
+        <v>0.4721042555406089</v>
       </c>
       <c r="D12">
-        <v>-2.566814460502763</v>
+        <v>-0.7801997685111379</v>
+      </c>
+      <c r="E12">
+        <v>28</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -601,13 +625,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-0.7606335714322481</v>
+        <v>-1.500703836792262</v>
       </c>
       <c r="C13">
-        <v>5.511202897233549</v>
+        <v>1.707216878932043</v>
       </c>
       <c r="D13">
-        <v>-2.074517818193021</v>
+        <v>-0.8776439431385432</v>
+      </c>
+      <c r="E13">
+        <v>28</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -618,13 +645,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-1.651504543754037</v>
+        <v>-0.4965760852562745</v>
       </c>
       <c r="C14">
-        <v>4.599670625896182</v>
+        <v>1.372776282338644</v>
       </c>
       <c r="D14">
-        <v>-2.829857131916401</v>
+        <v>-0.4348288494166036</v>
+      </c>
+      <c r="E14">
+        <v>28</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -635,13 +665,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-0.6762569984721002</v>
+        <v>-1.459563104124229</v>
       </c>
       <c r="C15">
-        <v>1.524966837741748</v>
+        <v>1.020471765020198</v>
       </c>
       <c r="D15">
-        <v>-1.506421208391175</v>
+        <v>-0.8525824979334309</v>
+      </c>
+      <c r="E15">
+        <v>28</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -652,13 +685,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-0.8079554656319726</v>
+        <v>-0.885471221551587</v>
       </c>
       <c r="C16">
-        <v>3.220051275712073</v>
+        <v>0.9042945540436882</v>
       </c>
       <c r="D16">
-        <v>-1.612971884227141</v>
+        <v>-0.2433624905657522</v>
+      </c>
+      <c r="E16">
+        <v>28</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -669,13 +705,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-0.2151005468250398</v>
+        <v>0.1121550115578005</v>
       </c>
       <c r="C17">
-        <v>3.282096255328308</v>
+        <v>0.5526645849988356</v>
       </c>
       <c r="D17">
-        <v>-2.553948284084003</v>
+        <v>-0.7026001122532793</v>
+      </c>
+      <c r="E17">
+        <v>28</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -686,13 +725,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-0.825778247886586</v>
+        <v>-1.440668357590253</v>
       </c>
       <c r="C18">
-        <v>2.974118834423561</v>
+        <v>0.2849713513621904</v>
       </c>
       <c r="D18">
-        <v>-0.9630745199596955</v>
+        <v>-0.1628399915095035</v>
+      </c>
+      <c r="E18">
+        <v>28</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -703,13 +745,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-1.177372809494848</v>
+        <v>-1.378871146309136</v>
       </c>
       <c r="C19">
-        <v>5.385710735538738</v>
+        <v>1.450209006078339</v>
       </c>
       <c r="D19">
-        <v>-2.205240111826237</v>
+        <v>-0.4592377445967584</v>
+      </c>
+      <c r="E19">
+        <v>28</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -720,13 +765,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4773293414694639</v>
+        <v>-0.3414757229588645</v>
       </c>
       <c r="C20">
-        <v>3.093532717015945</v>
+        <v>0.8026935067930427</v>
       </c>
       <c r="D20">
-        <v>-3.052432310658447</v>
+        <v>-2.101610700869653</v>
+      </c>
+      <c r="E20">
+        <v>28</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -737,16 +785,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.362457946897427</v>
+        <v>-1.571306027075096</v>
       </c>
       <c r="C21">
-        <v>4.345602798966588</v>
+        <v>3.156514920632471</v>
       </c>
       <c r="D21">
-        <v>-3.645295663828203</v>
+        <v>-0.6630163663509681</v>
+      </c>
+      <c r="E21">
+        <v>29</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -754,16 +805,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-0.1959325710092679</v>
+        <v>-0.224020333852846</v>
       </c>
       <c r="C22">
-        <v>0.5197434343734219</v>
+        <v>-0.3235661339918498</v>
       </c>
       <c r="D22">
-        <v>-1.151683676856397</v>
+        <v>-0.8851458032440982</v>
+      </c>
+      <c r="E22">
+        <v>29</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -771,13 +825,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-0.8612767921886656</v>
+        <v>-1.817116414442003</v>
       </c>
       <c r="C23">
-        <v>0.8518976477405724</v>
+        <v>0.1289488752320605</v>
       </c>
       <c r="D23">
-        <v>-0.4589475943138817</v>
+        <v>-0.2549690832880213</v>
+      </c>
+      <c r="E23">
+        <v>29</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -788,16 +845,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.1140881405962428</v>
+        <v>-3.96553041717314</v>
       </c>
       <c r="C24">
-        <v>-0.7931130677428174</v>
+        <v>0.8198986028327575</v>
       </c>
       <c r="D24">
-        <v>-0.1542926991241683</v>
+        <v>-0.7961720304352788</v>
+      </c>
+      <c r="E24">
+        <v>29</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -805,13 +865,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-0.1838028564722698</v>
+        <v>-0.5664367584960488</v>
       </c>
       <c r="C25">
-        <v>0.6001382865857308</v>
+        <v>-0.1772219338542628</v>
       </c>
       <c r="D25">
-        <v>-0.7548458816476387</v>
+        <v>-0.9001421215961334</v>
+      </c>
+      <c r="E25">
+        <v>29</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -822,16 +885,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.5443416106852175</v>
+        <v>-0.8329384648870444</v>
       </c>
       <c r="C26">
-        <v>-1.265113240564474</v>
+        <v>-0.7382043271904926</v>
       </c>
       <c r="D26">
-        <v>-0.2951509418347393</v>
+        <v>-0.3129806342815807</v>
+      </c>
+      <c r="E26">
+        <v>29</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -839,13 +905,16 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-0.3485191423039509</v>
+        <v>-0.4633596320746488</v>
       </c>
       <c r="C27">
-        <v>0.7772241670033562</v>
+        <v>-0.3112782565611096</v>
       </c>
       <c r="D27">
-        <v>-1.439184970442514</v>
+        <v>-0.9053041623918161</v>
+      </c>
+      <c r="E27">
+        <v>29</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -856,16 +925,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-0.6610910263780797</v>
+        <v>-0.44315214023448</v>
       </c>
       <c r="C28">
-        <v>0.7184602126572813</v>
+        <v>-0.3924786138819896</v>
       </c>
       <c r="D28">
-        <v>-0.9877341278519478</v>
+        <v>-0.2871355286083467</v>
+      </c>
+      <c r="E28">
+        <v>29</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -873,13 +945,16 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-0.6838231099716361</v>
+        <v>-0.4482945559411486</v>
       </c>
       <c r="C29">
-        <v>0.8172585733250839</v>
+        <v>-0.3735182197426544</v>
       </c>
       <c r="D29">
-        <v>-1.353299454537279</v>
+        <v>-0.5097410644967889</v>
+      </c>
+      <c r="E29">
+        <v>29</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -890,13 +965,16 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>-0.2696673607085343</v>
+        <v>-0.6186441486941805</v>
       </c>
       <c r="C30">
-        <v>-0.4039371502009551</v>
+        <v>-0.7687451458786458</v>
       </c>
       <c r="D30">
-        <v>-0.1805298182017861</v>
+        <v>0.04445609627370206</v>
+      </c>
+      <c r="E30">
+        <v>29</v>
       </c>
       <c r="F30">
         <v>2</v>
@@ -907,16 +985,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-0.04588123959789336</v>
+        <v>-0.6127049053901628</v>
       </c>
       <c r="C31">
-        <v>-0.5246121301267094</v>
+        <v>-0.8163345182624429</v>
       </c>
       <c r="D31">
-        <v>-0.3495480352793698</v>
+        <v>-0.1250138378837355</v>
+      </c>
+      <c r="E31">
+        <v>29</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -924,13 +1005,16 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-0.6601791336489176</v>
+        <v>-0.8691750080384562</v>
       </c>
       <c r="C32">
-        <v>-0.03808027053452079</v>
+        <v>-0.2929836763903484</v>
       </c>
       <c r="D32">
-        <v>-0.5209310632789299</v>
+        <v>-0.3094444515782473</v>
+      </c>
+      <c r="E32">
+        <v>29</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -941,16 +1025,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-1.348349073995577</v>
+        <v>-0.5207011556544623</v>
       </c>
       <c r="C33">
-        <v>1.120830210063435</v>
+        <v>-0.2307044315749218</v>
       </c>
       <c r="D33">
-        <v>-1.331824410829275</v>
+        <v>-0.2042540719932092</v>
+      </c>
+      <c r="E33">
+        <v>29</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -958,13 +1045,16 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.1795685782567416</v>
+        <v>-0.77862315366107</v>
       </c>
       <c r="C34">
-        <v>-0.9556330556446581</v>
+        <v>-1.386456239961035</v>
       </c>
       <c r="D34">
-        <v>0.7403342169621174</v>
+        <v>0.4217681189338759</v>
+      </c>
+      <c r="E34">
+        <v>29</v>
       </c>
       <c r="F34">
         <v>2</v>
@@ -975,16 +1065,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>-0.3099616592059917</v>
+        <v>-0.7734818666054684</v>
       </c>
       <c r="C35">
-        <v>-0.0314732104651636</v>
+        <v>-0.4613903584657934</v>
       </c>
       <c r="D35">
-        <v>-0.482563893036465</v>
+        <v>-0.2801694890991837</v>
+      </c>
+      <c r="E35">
+        <v>29</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -992,13 +1085,16 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>-0.8529510020357073</v>
+        <v>-0.4425783617481979</v>
       </c>
       <c r="C36">
-        <v>0.725795711834927</v>
+        <v>0.02365434030451427</v>
       </c>
       <c r="D36">
-        <v>-2.264943093813836</v>
+        <v>-1.04686086205383</v>
+      </c>
+      <c r="E36">
+        <v>29</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -1009,13 +1105,16 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>-0.9098745326564377</v>
+        <v>-1.173002528586057</v>
       </c>
       <c r="C37">
-        <v>0.004933309646557527</v>
+        <v>-0.5465289585444824</v>
       </c>
       <c r="D37">
-        <v>0.2415036226387888</v>
+        <v>0.2690232590118782</v>
+      </c>
+      <c r="E37">
+        <v>29</v>
       </c>
       <c r="F37">
         <v>2</v>
@@ -1026,16 +1125,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>-0.2095419320656848</v>
+        <v>-0.4946881146795923</v>
       </c>
       <c r="C38">
-        <v>0.430887382683274</v>
+        <v>-0.675821909471142</v>
       </c>
       <c r="D38">
-        <v>-0.8763612011569581</v>
+        <v>-0.1565192059163801</v>
+      </c>
+      <c r="E38">
+        <v>29</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1043,16 +1145,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-1.096798734174526</v>
+        <v>-1.754505001609204</v>
       </c>
       <c r="C39">
-        <v>0.9504250705318286</v>
+        <v>-0.5271810380815483</v>
       </c>
       <c r="D39">
-        <v>0.2306687792669496</v>
+        <v>0.1002509027536265</v>
+      </c>
+      <c r="E39">
+        <v>29</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1060,16 +1165,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>-0.7890100745225705</v>
+        <v>-0.6727404459370545</v>
       </c>
       <c r="C40">
-        <v>-0.190800151912023</v>
+        <v>-0.7129794761372188</v>
       </c>
       <c r="D40">
-        <v>-0.2488351233217724</v>
+        <v>0.05153030846529943</v>
+      </c>
+      <c r="E40">
+        <v>29</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1077,13 +1185,16 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>-0.2494248914467609</v>
+        <v>-0.9401898692356984</v>
       </c>
       <c r="C41">
-        <v>0.4686206189401456</v>
+        <v>-0.06527315549100221</v>
       </c>
       <c r="D41">
-        <v>-1.255620032380192</v>
+        <v>-0.7789281191232197</v>
+      </c>
+      <c r="E41">
+        <v>29</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -1094,13 +1205,16 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.1434602905184172</v>
+        <v>-0.3999644840914968</v>
       </c>
       <c r="C42">
-        <v>0.4308934541117607</v>
+        <v>-0.3449047189100449</v>
       </c>
       <c r="D42">
-        <v>-1.364619940051489</v>
+        <v>-0.833413744015535</v>
+      </c>
+      <c r="E42">
+        <v>29</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -1111,16 +1225,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>-0.5112851241191491</v>
+        <v>-0.4137248750065343</v>
       </c>
       <c r="C43">
-        <v>0.7794124183513407</v>
+        <v>-0.4257160488326914</v>
       </c>
       <c r="D43">
-        <v>-1.152169360255221</v>
+        <v>-0.1878313819338602</v>
+      </c>
+      <c r="E43">
+        <v>29</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1128,16 +1245,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>-0.2599005739235689</v>
+        <v>-0.9402004852200621</v>
       </c>
       <c r="C44">
-        <v>-0.0003616275976192074</v>
+        <v>-0.4536962949980711</v>
       </c>
       <c r="D44">
-        <v>-0.4754200836290329</v>
+        <v>-0.3271336414805583</v>
+      </c>
+      <c r="E44">
+        <v>29</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1145,16 +1265,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>-1.325622476743051</v>
+        <v>-1.415008540853978</v>
       </c>
       <c r="C45">
-        <v>1.104096144399723</v>
+        <v>-0.1236441186304289</v>
       </c>
       <c r="D45">
-        <v>-0.3902117058920812</v>
+        <v>0.05847678492694874</v>
+      </c>
+      <c r="E45">
+        <v>29</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1162,13 +1285,16 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>-0.3638890313175827</v>
+        <v>-0.8128006320171978</v>
       </c>
       <c r="C46">
-        <v>-0.003363679829899935</v>
+        <v>-0.8070665160044093</v>
       </c>
       <c r="D46">
-        <v>0.5756747672163709</v>
+        <v>0.3307596513712596</v>
+      </c>
+      <c r="E46">
+        <v>29</v>
       </c>
       <c r="F46">
         <v>2</v>
@@ -1179,13 +1305,16 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>-0.5444682273914065</v>
+        <v>-0.888506277486812</v>
       </c>
       <c r="C47">
-        <v>0.8351743704667816</v>
+        <v>-0.2665018974230572</v>
       </c>
       <c r="D47">
-        <v>-0.6532429080960647</v>
+        <v>-0.5341684901019363</v>
+      </c>
+      <c r="E47">
+        <v>29</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -1196,13 +1325,16 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>3.2204690649051</v>
+        <v>-1.95126772682605</v>
       </c>
       <c r="C48">
-        <v>5.817287362968368</v>
+        <v>4.118707226379929</v>
       </c>
       <c r="D48">
-        <v>-3.702298012921841</v>
+        <v>-1.073392013320968</v>
+      </c>
+      <c r="E48">
+        <v>30</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -1213,13 +1345,16 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.5157917930412141</v>
+        <v>0.3189045666497082</v>
       </c>
       <c r="C49">
-        <v>-1.073155428075593</v>
+        <v>-1.005852433891046</v>
       </c>
       <c r="D49">
-        <v>-0.3220964254250369</v>
+        <v>-0.5954552435384313</v>
+      </c>
+      <c r="E49">
+        <v>30</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -1230,13 +1365,16 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>-1.622741202948198</v>
+        <v>-1.461257680675485</v>
       </c>
       <c r="C50">
-        <v>1.683104632346019</v>
+        <v>0.6733469123854208</v>
       </c>
       <c r="D50">
-        <v>-0.760460854681007</v>
+        <v>-0.9521317935163363</v>
+      </c>
+      <c r="E50">
+        <v>30</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -1247,13 +1385,16 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>-2.793671177332776</v>
+        <v>-2.51841395681257</v>
       </c>
       <c r="C51">
-        <v>2.050293984776977</v>
+        <v>1.240098752161475</v>
       </c>
       <c r="D51">
-        <v>-0.4733958326744345</v>
+        <v>-0.4585741379473244</v>
+      </c>
+      <c r="E51">
+        <v>30</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -1264,13 +1405,16 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.0104208463037132</v>
+        <v>-0.162993549415582</v>
       </c>
       <c r="C52">
-        <v>-0.4350561153306847</v>
+        <v>-0.3665564678629996</v>
       </c>
       <c r="D52">
-        <v>-0.7056412573077875</v>
+        <v>-0.9262127942437821</v>
+      </c>
+      <c r="E52">
+        <v>30</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -1281,13 +1425,16 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>-1.064981735186113</v>
+        <v>-1.534014397698622</v>
       </c>
       <c r="C53">
-        <v>1.002874135340843</v>
+        <v>0.505554330093102</v>
       </c>
       <c r="D53">
-        <v>-0.455699096005046</v>
+        <v>-0.5141039370866454</v>
+      </c>
+      <c r="E53">
+        <v>30</v>
       </c>
       <c r="F53">
         <v>1</v>
@@ -1298,13 +1445,16 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>1.709391951194299</v>
+        <v>1.37385315306099</v>
       </c>
       <c r="C54">
-        <v>-1.552311259176346</v>
+        <v>-1.549591380531569</v>
       </c>
       <c r="D54">
-        <v>-0.9546554872698247</v>
+        <v>-0.8524189936095043</v>
+      </c>
+      <c r="E54">
+        <v>30</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -1315,13 +1465,16 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>-1.093274089661719</v>
+        <v>-1.130006242242521</v>
       </c>
       <c r="C55">
-        <v>0.8162610897011916</v>
+        <v>0.0438377581995609</v>
       </c>
       <c r="D55">
-        <v>-0.1512950741002222</v>
+        <v>-0.21147343783896</v>
+      </c>
+      <c r="E55">
+        <v>30</v>
       </c>
       <c r="F55">
         <v>1</v>
@@ -1332,13 +1485,16 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>-0.6645531031136118</v>
+        <v>-0.6715473674864935</v>
       </c>
       <c r="C56">
-        <v>0.5348393079852171</v>
+        <v>-0.006930425951780783</v>
       </c>
       <c r="D56">
-        <v>-0.7655422005793422</v>
+        <v>-0.5208355263442147</v>
+      </c>
+      <c r="E56">
+        <v>30</v>
       </c>
       <c r="F56">
         <v>1</v>
@@ -1349,13 +1505,16 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>1.367830361802157</v>
+        <v>0.8926147819246616</v>
       </c>
       <c r="C57">
-        <v>-1.092847638569498</v>
+        <v>-1.214614595593326</v>
       </c>
       <c r="D57">
-        <v>-1.190009370232308</v>
+        <v>-1.022986411769415</v>
+      </c>
+      <c r="E57">
+        <v>30</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -1366,13 +1525,16 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>-0.9140765045749563</v>
+        <v>-1.074864934026448</v>
       </c>
       <c r="C58">
-        <v>0.5321241154378695</v>
+        <v>0.09396980688124648</v>
       </c>
       <c r="D58">
-        <v>-0.5373325100591191</v>
+        <v>-0.8965173282502448</v>
+      </c>
+      <c r="E58">
+        <v>30</v>
       </c>
       <c r="F58">
         <v>1</v>
@@ -1383,16 +1545,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>-1.039405497145916</v>
+        <v>-0.3045365804529258</v>
       </c>
       <c r="C59">
-        <v>-0.2047612973440013</v>
+        <v>-0.5029317882250122</v>
       </c>
       <c r="D59">
-        <v>-0.7752659749243027</v>
+        <v>-0.8076894735608396</v>
+      </c>
+      <c r="E59">
+        <v>30</v>
       </c>
       <c r="F59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1400,13 +1565,16 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.8995505812894982</v>
+        <v>0.6190256700131312</v>
       </c>
       <c r="C60">
-        <v>-0.4974857651736281</v>
+        <v>-0.7350928172216522</v>
       </c>
       <c r="D60">
-        <v>-0.9869966770273861</v>
+        <v>-1.154033981497402</v>
+      </c>
+      <c r="E60">
+        <v>30</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -1417,13 +1585,16 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>1.550270865994374</v>
+        <v>1.1071753982418</v>
       </c>
       <c r="C61">
-        <v>-0.5763048829997807</v>
+        <v>-0.8177569137784313</v>
       </c>
       <c r="D61">
-        <v>-1.565641977626913</v>
+        <v>-1.568808043242649</v>
+      </c>
+      <c r="E61">
+        <v>30</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -1434,13 +1605,16 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.7538283611203254</v>
+        <v>0.580716512541737</v>
       </c>
       <c r="C62">
-        <v>-0.8696610194944613</v>
+        <v>-0.81380764422492</v>
       </c>
       <c r="D62">
-        <v>-0.9816061060361421</v>
+        <v>-1.03157969177634</v>
+      </c>
+      <c r="E62">
+        <v>30</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -1451,16 +1625,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.07909766146181774</v>
+        <v>-0.1708480839151126</v>
       </c>
       <c r="C63">
-        <v>-0.8458035310343998</v>
+        <v>-0.9566202167501956</v>
       </c>
       <c r="D63">
-        <v>0.2857940591329836</v>
+        <v>-0.3163542606728675</v>
+      </c>
+      <c r="E63">
+        <v>30</v>
       </c>
       <c r="F63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1468,13 +1645,16 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.07115188356920465</v>
+        <v>-0.09009277342256805</v>
       </c>
       <c r="C64">
-        <v>-0.3678378328772594</v>
+        <v>-0.7414127494501346</v>
       </c>
       <c r="D64">
-        <v>-0.2168279474113787</v>
+        <v>-0.2840644781313331</v>
+      </c>
+      <c r="E64">
+        <v>30</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -1485,13 +1665,16 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>-0.7932270283155641</v>
+        <v>-0.8135206858549492</v>
       </c>
       <c r="C65">
-        <v>0.05546167665273916</v>
+        <v>-0.3116124737617021</v>
       </c>
       <c r="D65">
-        <v>0.1652732763723784</v>
+        <v>0.07787483909631882</v>
+      </c>
+      <c r="E65">
+        <v>30</v>
       </c>
       <c r="F65">
         <v>2</v>
@@ -1502,13 +1685,16 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>-1.069697443262976</v>
+        <v>-0.9389830084315384</v>
       </c>
       <c r="C66">
-        <v>1.480542917589168</v>
+        <v>0.764014395692892</v>
       </c>
       <c r="D66">
-        <v>-1.883571377730221</v>
+        <v>-1.715654439134602</v>
+      </c>
+      <c r="E66">
+        <v>30</v>
       </c>
       <c r="F66">
         <v>1</v>
@@ -1519,13 +1705,16 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>-0.9986610010607142</v>
+        <v>-1.35250600247431</v>
       </c>
       <c r="C67">
-        <v>1.112836691870868</v>
+        <v>0.2878463644042585</v>
       </c>
       <c r="D67">
-        <v>-0.6980514029510956</v>
+        <v>-0.8174278909378274</v>
+      </c>
+      <c r="E67">
+        <v>30</v>
       </c>
       <c r="F67">
         <v>1</v>
@@ -1536,13 +1725,16 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>-1.438220994320353</v>
+        <v>-1.226880757675811</v>
       </c>
       <c r="C68">
-        <v>1.580195195830256</v>
+        <v>0.5108687901548552</v>
       </c>
       <c r="D68">
-        <v>-0.8713952793889097</v>
+        <v>-0.9721971068883479</v>
+      </c>
+      <c r="E68">
+        <v>30</v>
       </c>
       <c r="F68">
         <v>1</v>
@@ -1553,13 +1745,16 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>-2.24942837736601</v>
+        <v>-1.901431152914321</v>
       </c>
       <c r="C69">
-        <v>1.30008164752528</v>
+        <v>0.6210706285733325</v>
       </c>
       <c r="D69">
-        <v>0.3577399242260685</v>
+        <v>-0.03718656029684902</v>
+      </c>
+      <c r="E69">
+        <v>30</v>
       </c>
       <c r="F69">
         <v>1</v>
@@ -1570,13 +1765,16 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>-1.206041667000728</v>
+        <v>-1.399447265685859</v>
       </c>
       <c r="C70">
-        <v>0.4810944490471719</v>
+        <v>0.04751871836009286</v>
       </c>
       <c r="D70">
-        <v>-0.01780655550752036</v>
+        <v>-0.2420553962403882</v>
+      </c>
+      <c r="E70">
+        <v>30</v>
       </c>
       <c r="F70">
         <v>1</v>
@@ -1587,13 +1785,16 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>-1.334297877300046</v>
+        <v>-1.186625713194152</v>
       </c>
       <c r="C71">
-        <v>0.2593270630063306</v>
+        <v>0.04196884080181199</v>
       </c>
       <c r="D71">
-        <v>-0.01116281904773686</v>
+        <v>-0.1207869827023725</v>
+      </c>
+      <c r="E71">
+        <v>30</v>
       </c>
       <c r="F71">
         <v>1</v>
@@ -1604,13 +1805,16 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>-0.9653001405231205</v>
+        <v>-0.4073737081027927</v>
       </c>
       <c r="C72">
-        <v>0.2520187441140197</v>
+        <v>-0.1418854313110966</v>
       </c>
       <c r="D72">
-        <v>-0.5922005878595533</v>
+        <v>-0.9857239897006504</v>
+      </c>
+      <c r="E72">
+        <v>30</v>
       </c>
       <c r="F72">
         <v>1</v>
@@ -1621,16 +1825,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>-0.5701486838084013</v>
+        <v>-0.4908435250525286</v>
       </c>
       <c r="C73">
-        <v>-0.1665498002400786</v>
+        <v>-0.5367708859730447</v>
       </c>
       <c r="D73">
-        <v>-0.3577745522916428</v>
+        <v>-0.3730854901240732</v>
+      </c>
+      <c r="E73">
+        <v>30</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1638,13 +1845,16 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>-1.2966213787543</v>
+        <v>-1.382189542872853</v>
       </c>
       <c r="C74">
-        <v>0.9683615854755155</v>
+        <v>0.3555330950538507</v>
       </c>
       <c r="D74">
-        <v>-0.6146506572586268</v>
+        <v>-0.4286020018027039</v>
+      </c>
+      <c r="E74">
+        <v>30</v>
       </c>
       <c r="F74">
         <v>1</v>
@@ -1655,13 +1865,16 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>-1.733146231629769</v>
+        <v>-1.670187916863771</v>
       </c>
       <c r="C75">
-        <v>0.9065081588839012</v>
+        <v>0.4971081294302058</v>
       </c>
       <c r="D75">
-        <v>0.06339957146985042</v>
+        <v>-0.2395035759838118</v>
+      </c>
+      <c r="E75">
+        <v>30</v>
       </c>
       <c r="F75">
         <v>1</v>
@@ -1672,13 +1885,16 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>-0.5306733181201574</v>
+        <v>-0.7736455284381636</v>
       </c>
       <c r="C76">
-        <v>-0.5431354796589151</v>
+        <v>-0.7183449985023309</v>
       </c>
       <c r="D76">
-        <v>0.05382013237157951</v>
+        <v>-0.1588727423706206</v>
+      </c>
+      <c r="E76">
+        <v>30</v>
       </c>
       <c r="F76">
         <v>2</v>
@@ -1689,13 +1905,16 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>-0.8761420080516015</v>
+        <v>-0.7773691302907215</v>
       </c>
       <c r="C77">
-        <v>1.248056869754857</v>
+        <v>0.1639380944018883</v>
       </c>
       <c r="D77">
-        <v>-1.094826913112052</v>
+        <v>-0.7176826086339427</v>
+      </c>
+      <c r="E77">
+        <v>30</v>
       </c>
       <c r="F77">
         <v>1</v>
@@ -1706,13 +1925,16 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>-0.6183487104487202</v>
+        <v>-0.3172301217258456</v>
       </c>
       <c r="C78">
-        <v>0.5921469820631503</v>
+        <v>-0.01624112831944693</v>
       </c>
       <c r="D78">
-        <v>-1.491374263464945</v>
+        <v>-1.098697209460884</v>
+      </c>
+      <c r="E78">
+        <v>30</v>
       </c>
       <c r="F78">
         <v>1</v>
@@ -1723,13 +1945,16 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.01521849424288058</v>
+        <v>-0.6440275861478317</v>
       </c>
       <c r="C79">
-        <v>0.8762258199696678</v>
+        <v>0.1267860694111328</v>
       </c>
       <c r="D79">
-        <v>-1.45368431259146</v>
+        <v>-1.21351051872246</v>
+      </c>
+      <c r="E79">
+        <v>30</v>
       </c>
       <c r="F79">
         <v>1</v>
@@ -1740,16 +1965,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.0748525451752553</v>
+        <v>-0.6554612588849253</v>
       </c>
       <c r="C80">
-        <v>0.30121547861031</v>
+        <v>-0.4971105749474584</v>
       </c>
       <c r="D80">
-        <v>-0.3606019714520646</v>
+        <v>-0.2338776979890371</v>
+      </c>
+      <c r="E80">
+        <v>30</v>
       </c>
       <c r="F80">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1757,13 +1985,16 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>-1.258758459810987</v>
+        <v>-1.266241505942879</v>
       </c>
       <c r="C81">
-        <v>0.9444695895223658</v>
+        <v>0.3928376667088998</v>
       </c>
       <c r="D81">
-        <v>-0.3742251726915279</v>
+        <v>-0.7698007752041743</v>
+      </c>
+      <c r="E81">
+        <v>30</v>
       </c>
       <c r="F81">
         <v>1</v>
@@ -1774,13 +2005,16 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>-0.681411395710659</v>
+        <v>-0.3774524840457281</v>
       </c>
       <c r="C82">
-        <v>0.00886469703557391</v>
+        <v>-0.2547915970601097</v>
       </c>
       <c r="D82">
-        <v>-0.3509515057694098</v>
+        <v>-0.7042261732150741</v>
+      </c>
+      <c r="E82">
+        <v>30</v>
       </c>
       <c r="F82">
         <v>1</v>
@@ -1791,13 +2025,16 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>-1.417805115806835</v>
+        <v>-1.376371617636883</v>
       </c>
       <c r="C83">
-        <v>0.4551405733162887</v>
+        <v>0.09133467103597756</v>
       </c>
       <c r="D83">
-        <v>0.1641137173286296</v>
+        <v>0.0593674966528317</v>
+      </c>
+      <c r="E83">
+        <v>30</v>
       </c>
       <c r="F83">
         <v>1</v>
@@ -1808,13 +2045,16 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>-0.3396851543613106</v>
+        <v>-0.4840608821984453</v>
       </c>
       <c r="C84">
-        <v>-0.641497639842007</v>
+        <v>-0.7851715796105445</v>
       </c>
       <c r="D84">
-        <v>0.3219459567982122</v>
+        <v>0.06803571109663881</v>
+      </c>
+      <c r="E84">
+        <v>30</v>
       </c>
       <c r="F84">
         <v>2</v>
@@ -1825,13 +2065,16 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>-1.181806430658203</v>
+        <v>-1.679039184871096</v>
       </c>
       <c r="C85">
-        <v>1.433218877529817</v>
+        <v>0.3038720313637708</v>
       </c>
       <c r="D85">
-        <v>-0.1728444281142847</v>
+        <v>-0.5413704333080946</v>
+      </c>
+      <c r="E85">
+        <v>30</v>
       </c>
       <c r="F85">
         <v>1</v>
@@ -1842,13 +2085,16 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>-1.750579782894532</v>
+        <v>-1.67266387804111</v>
       </c>
       <c r="C86">
-        <v>1.394087872676741</v>
+        <v>0.6536883886422371</v>
       </c>
       <c r="D86">
-        <v>-0.2850067356260724</v>
+        <v>-0.1676873605198167</v>
+      </c>
+      <c r="E86">
+        <v>30</v>
       </c>
       <c r="F86">
         <v>1</v>
@@ -1859,13 +2105,16 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>1.064682129040954</v>
+        <v>0.6485693391001702</v>
       </c>
       <c r="C87">
-        <v>-1.514666425131661</v>
+        <v>-1.449270898184306</v>
       </c>
       <c r="D87">
-        <v>-0.2887599482952198</v>
+        <v>-0.4377169779278401</v>
+      </c>
+      <c r="E87">
+        <v>30</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -1876,13 +2125,16 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>-0.08103958785572751</v>
+        <v>-0.3778115143273764</v>
       </c>
       <c r="C88">
-        <v>0.2021542884495862</v>
+        <v>-0.2658878582524206</v>
       </c>
       <c r="D88">
-        <v>-0.898664914913422</v>
+        <v>-0.6344253046553693</v>
+      </c>
+      <c r="E88">
+        <v>30</v>
       </c>
       <c r="F88">
         <v>1</v>
@@ -1893,13 +2145,16 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>-0.5250089914876968</v>
+        <v>-0.6655834236436712</v>
       </c>
       <c r="C89">
-        <v>0.4620373935798769</v>
+        <v>-0.1606547301252784</v>
       </c>
       <c r="D89">
-        <v>-0.4933995547590653</v>
+        <v>-0.4223571563442993</v>
+      </c>
+      <c r="E89">
+        <v>30</v>
       </c>
       <c r="F89">
         <v>1</v>
@@ -1910,13 +2165,16 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>-0.4353595922297928</v>
+        <v>-0.5828163974508558</v>
       </c>
       <c r="C90">
-        <v>0.4646595556535904</v>
+        <v>-0.07615060462840617</v>
       </c>
       <c r="D90">
-        <v>-0.9115417643924209</v>
+        <v>-0.7546798916025066</v>
+      </c>
+      <c r="E90">
+        <v>30</v>
       </c>
       <c r="F90">
         <v>1</v>
@@ -1927,13 +2185,16 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>-2.063920822327939</v>
+        <v>-0.4650711227662376</v>
       </c>
       <c r="C91">
-        <v>1.836649084400154</v>
+        <v>0.8244050938068284</v>
       </c>
       <c r="D91">
-        <v>-2.447047456117557</v>
+        <v>-1.426553928630462</v>
+      </c>
+      <c r="E91">
+        <v>30</v>
       </c>
       <c r="F91">
         <v>1</v>
@@ -1944,13 +2205,16 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>-0.1352686672485106</v>
+        <v>-0.08549797636513612</v>
       </c>
       <c r="C92">
-        <v>-0.1438532859405544</v>
+        <v>-0.4218099288855309</v>
       </c>
       <c r="D92">
-        <v>-0.9441386062163526</v>
+        <v>-0.6566294713694274</v>
+      </c>
+      <c r="E92">
+        <v>30</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -1961,13 +2225,16 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.317152979585843</v>
+        <v>-0.04231643406680374</v>
       </c>
       <c r="C93">
-        <v>-0.4612562304973118</v>
+        <v>-0.6957007379360953</v>
       </c>
       <c r="D93">
-        <v>-0.6080182107938823</v>
+        <v>-0.7830067357497864</v>
+      </c>
+      <c r="E93">
+        <v>30</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -1978,13 +2245,16 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>-1.326726121587415</v>
+        <v>-1.51057746110327</v>
       </c>
       <c r="C94">
-        <v>0.1138754509186296</v>
+        <v>-0.08718071242875872</v>
       </c>
       <c r="D94">
-        <v>0.3461045434822904</v>
+        <v>0.09102516028385327</v>
+      </c>
+      <c r="E94">
+        <v>30</v>
       </c>
       <c r="F94">
         <v>2</v>
@@ -1995,13 +2265,16 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.4836225251781965</v>
+        <v>0.2202553844368517</v>
       </c>
       <c r="C95">
-        <v>-0.8829343105823763</v>
+        <v>-0.867634541795971</v>
       </c>
       <c r="D95">
-        <v>-0.3751776641911979</v>
+        <v>-0.7199184985976879</v>
+      </c>
+      <c r="E95">
+        <v>30</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -2012,13 +2285,16 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>1.979830330211366</v>
+        <v>-5.109690024534915</v>
       </c>
       <c r="C96">
-        <v>2.168685610457342</v>
+        <v>3.273975664177775</v>
       </c>
       <c r="D96">
-        <v>-0.7860886466979164</v>
+        <v>0.5339575822089584</v>
+      </c>
+      <c r="E96">
+        <v>31</v>
       </c>
       <c r="F96">
         <v>1</v>
@@ -2029,13 +2305,16 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>-2.604117851582394</v>
+        <v>-2.786383461144978</v>
       </c>
       <c r="C97">
-        <v>1.551578004496507</v>
+        <v>0.2722314225516744</v>
       </c>
       <c r="D97">
-        <v>-0.3214278466050109</v>
+        <v>-0.4492782421639812</v>
+      </c>
+      <c r="E97">
+        <v>31</v>
       </c>
       <c r="F97">
         <v>1</v>
@@ -2046,13 +2325,16 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>-1.615810727017648</v>
+        <v>-2.586458025357638</v>
       </c>
       <c r="C98">
-        <v>0.1187770077554225</v>
+        <v>0.1657297365586822</v>
       </c>
       <c r="D98">
-        <v>0.3669118257145744</v>
+        <v>0.2863829574860614</v>
+      </c>
+      <c r="E98">
+        <v>31</v>
       </c>
       <c r="F98">
         <v>2</v>
@@ -2063,16 +2345,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>-2.262545655311226</v>
+        <v>-2.402202729061796</v>
       </c>
       <c r="C99">
-        <v>0.684847772606309</v>
+        <v>0.2163740785388853</v>
       </c>
       <c r="D99">
-        <v>0.2601248254905484</v>
+        <v>0.3354212243238709</v>
+      </c>
+      <c r="E99">
+        <v>31</v>
       </c>
       <c r="F99">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2080,13 +2365,16 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>-2.638882462760209</v>
+        <v>-3.822544572985052</v>
       </c>
       <c r="C100">
-        <v>1.656134068398043</v>
+        <v>0.8341834942794657</v>
       </c>
       <c r="D100">
-        <v>0.02672761835931775</v>
+        <v>-0.4614049396174184</v>
+      </c>
+      <c r="E100">
+        <v>31</v>
       </c>
       <c r="F100">
         <v>1</v>
@@ -2097,16 +2385,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>-1.906848875476832</v>
+        <v>-2.339507184391008</v>
       </c>
       <c r="C101">
-        <v>0.3212667630863655</v>
+        <v>-0.07960243897355967</v>
       </c>
       <c r="D101">
-        <v>0.1160889973185741</v>
+        <v>-0.0602035743886748</v>
+      </c>
+      <c r="E101">
+        <v>31</v>
       </c>
       <c r="F101">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2114,16 +2405,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>-0.7631087279883638</v>
+        <v>-1.636271246443378</v>
       </c>
       <c r="C102">
-        <v>0.1291535317215858</v>
+        <v>-0.1465523658120252</v>
       </c>
       <c r="D102">
-        <v>-0.07918603942054986</v>
+        <v>-0.03310084587010242</v>
+      </c>
+      <c r="E102">
+        <v>31</v>
       </c>
       <c r="F102">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2131,13 +2425,16 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>-2.193070718760441</v>
+        <v>-3.186853228056165</v>
       </c>
       <c r="C103">
-        <v>0.4482436733793644</v>
+        <v>0.1389007057873994</v>
       </c>
       <c r="D103">
-        <v>1.014720045581496</v>
+        <v>0.2783665553613217</v>
+      </c>
+      <c r="E103">
+        <v>31</v>
       </c>
       <c r="F103">
         <v>2</v>
@@ -2148,13 +2445,16 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>-1.460020974905954</v>
+        <v>-3.143862800555091</v>
       </c>
       <c r="C104">
-        <v>0.7803664257114876</v>
+        <v>0.07129316360547254</v>
       </c>
       <c r="D104">
-        <v>0.930731572704284</v>
+        <v>0.1497597917835322</v>
+      </c>
+      <c r="E104">
+        <v>31</v>
       </c>
       <c r="F104">
         <v>2</v>
@@ -2165,13 +2465,16 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>-1.831627217646866</v>
+        <v>-2.701500961570189</v>
       </c>
       <c r="C105">
-        <v>-0.2130356917408889</v>
+        <v>-0.2865264195932257</v>
       </c>
       <c r="D105">
-        <v>1.573557307251271</v>
+        <v>0.7996770066122401</v>
+      </c>
+      <c r="E105">
+        <v>31</v>
       </c>
       <c r="F105">
         <v>2</v>
@@ -2182,16 +2485,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>-0.00855340027675866</v>
+        <v>-2.807356692065754</v>
       </c>
       <c r="C106">
-        <v>-2.152584578342232</v>
+        <v>-0.06520157307100738</v>
       </c>
       <c r="D106">
-        <v>-0.4624326575460567</v>
+        <v>-1.015860392491242</v>
+      </c>
+      <c r="E106">
+        <v>31</v>
       </c>
       <c r="F106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2199,13 +2505,16 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>-2.067875072418381</v>
+        <v>-1.905709066344452</v>
       </c>
       <c r="C107">
-        <v>1.00958911074579</v>
+        <v>0.0900728270421304</v>
       </c>
       <c r="D107">
-        <v>-0.5437509950716539</v>
+        <v>-0.8502833458244536</v>
+      </c>
+      <c r="E107">
+        <v>31</v>
       </c>
       <c r="F107">
         <v>1</v>
@@ -2216,13 +2525,16 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>2.502112634619637</v>
+        <v>-3.612748640681919</v>
       </c>
       <c r="C108">
-        <v>6.191435393875129</v>
+        <v>3.955291173383791</v>
       </c>
       <c r="D108">
-        <v>-3.195163557136506</v>
+        <v>-1.520624661551326</v>
+      </c>
+      <c r="E108">
+        <v>31</v>
       </c>
       <c r="F108">
         <v>1</v>
@@ -2233,13 +2545,16 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>-1.303233531440258</v>
+        <v>-1.905760461461503</v>
       </c>
       <c r="C109">
-        <v>2.643732538774844</v>
+        <v>0.5335667197043135</v>
       </c>
       <c r="D109">
-        <v>-0.3052948917618939</v>
+        <v>-0.4627045568603039</v>
+      </c>
+      <c r="E109">
+        <v>31</v>
       </c>
       <c r="F109">
         <v>1</v>
@@ -2250,13 +2565,16 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>-1.924464068303303</v>
+        <v>-2.123878537814272</v>
       </c>
       <c r="C110">
-        <v>2.877231717274078</v>
+        <v>0.7436489235678658</v>
       </c>
       <c r="D110">
-        <v>-0.3856145208072581</v>
+        <v>-0.1181175346174236</v>
+      </c>
+      <c r="E110">
+        <v>31</v>
       </c>
       <c r="F110">
         <v>1</v>
@@ -2267,16 +2585,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>-0.5507890871504593</v>
+        <v>-1.265284242248976</v>
       </c>
       <c r="C111">
-        <v>1.224081525532893</v>
+        <v>-0.04475222506311252</v>
       </c>
       <c r="D111">
-        <v>-0.1900536357749604</v>
+        <v>0.0311104773366736</v>
+      </c>
+      <c r="E111">
+        <v>31</v>
       </c>
       <c r="F111">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2284,13 +2605,16 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>-1.658442729468588</v>
+        <v>-2.255225944347634</v>
       </c>
       <c r="C112">
-        <v>1.959311258248579</v>
+        <v>0.7393900688382373</v>
       </c>
       <c r="D112">
-        <v>-0.6486456226442856</v>
+        <v>-0.4171837303391173</v>
+      </c>
+      <c r="E112">
+        <v>31</v>
       </c>
       <c r="F112">
         <v>1</v>
@@ -2301,13 +2625,16 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>-1.603681262169205</v>
+        <v>-2.279179716914169</v>
       </c>
       <c r="C113">
-        <v>0.4325559090282449</v>
+        <v>0.001358350427893007</v>
       </c>
       <c r="D113">
-        <v>1.551563815815539</v>
+        <v>0.99484438123838</v>
+      </c>
+      <c r="E113">
+        <v>31</v>
       </c>
       <c r="F113">
         <v>2</v>
@@ -2318,13 +2645,16 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>-1.829546673402108</v>
+        <v>-2.330649031659487</v>
       </c>
       <c r="C114">
-        <v>1.94559939008225</v>
+        <v>0.5265139232532163</v>
       </c>
       <c r="D114">
-        <v>0.3618652337295619</v>
+        <v>0.2664271912129019</v>
+      </c>
+      <c r="E114">
+        <v>31</v>
       </c>
       <c r="F114">
         <v>1</v>
@@ -2335,13 +2665,16 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>-0.7701996957730977</v>
+        <v>-3.627731528090508</v>
       </c>
       <c r="C115">
-        <v>1.115415181845972</v>
+        <v>0.786397974529059</v>
       </c>
       <c r="D115">
-        <v>0.5439182973884025</v>
+        <v>0.4384369493328177</v>
+      </c>
+      <c r="E115">
+        <v>31</v>
       </c>
       <c r="F115">
         <v>1</v>
@@ -2352,13 +2685,16 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>-1.823314259732947</v>
+        <v>-1.994577734825091</v>
       </c>
       <c r="C116">
-        <v>2.498510446107708</v>
+        <v>0.5907471151635555</v>
       </c>
       <c r="D116">
-        <v>-0.205430408915906</v>
+        <v>0.09222082596132586</v>
+      </c>
+      <c r="E116">
+        <v>31</v>
       </c>
       <c r="F116">
         <v>1</v>
@@ -2369,13 +2705,16 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>-1.329612234938102</v>
+        <v>-1.292544924640655</v>
       </c>
       <c r="C117">
-        <v>2.603977653196178</v>
+        <v>1.227174688915037</v>
       </c>
       <c r="D117">
-        <v>-1.569250796161036</v>
+        <v>-0.9838388323273672</v>
+      </c>
+      <c r="E117">
+        <v>32</v>
       </c>
       <c r="F117">
         <v>1</v>
@@ -2386,13 +2725,16 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>-1.378635080782448</v>
+        <v>-1.211671792048662</v>
       </c>
       <c r="C118">
-        <v>2.478655756137516</v>
+        <v>1.03773411739463</v>
       </c>
       <c r="D118">
-        <v>-1.414635599709748</v>
+        <v>-1.109630661812677</v>
+      </c>
+      <c r="E118">
+        <v>32</v>
       </c>
       <c r="F118">
         <v>1</v>
@@ -2403,13 +2745,16 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>-1.531335416515666</v>
+        <v>-1.023186232870002</v>
       </c>
       <c r="C119">
-        <v>1.091534989967898</v>
+        <v>0.3757668484498987</v>
       </c>
       <c r="D119">
-        <v>-0.5997064150984479</v>
+        <v>-0.6952569688653554</v>
+      </c>
+      <c r="E119">
+        <v>32</v>
       </c>
       <c r="F119">
         <v>1</v>
@@ -2420,13 +2765,16 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>-0.9565334272016497</v>
+        <v>-0.9803016762551227</v>
       </c>
       <c r="C120">
-        <v>2.304428363667594</v>
+        <v>0.8161552448689031</v>
       </c>
       <c r="D120">
-        <v>-0.9062252456485693</v>
+        <v>-0.5489915055618382</v>
+      </c>
+      <c r="E120">
+        <v>32</v>
       </c>
       <c r="F120">
         <v>1</v>
@@ -2437,13 +2785,16 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>-0.957370900429415</v>
+        <v>-0.8878024084157802</v>
       </c>
       <c r="C121">
-        <v>1.640591905527364</v>
+        <v>0.5987214848473397</v>
       </c>
       <c r="D121">
-        <v>-0.836599149801126</v>
+        <v>-0.5699094764656732</v>
+      </c>
+      <c r="E121">
+        <v>32</v>
       </c>
       <c r="F121">
         <v>1</v>
@@ -2454,13 +2805,16 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>-0.4204879185682232</v>
+        <v>-1.061057768590471</v>
       </c>
       <c r="C122">
-        <v>3.670210150913069</v>
+        <v>0.9539573808189246</v>
       </c>
       <c r="D122">
-        <v>-1.668006582362537</v>
+        <v>-1.124984770439831</v>
+      </c>
+      <c r="E122">
+        <v>32</v>
       </c>
       <c r="F122">
         <v>1</v>
@@ -2471,13 +2825,16 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>-1.157555978858085</v>
+        <v>-1.212037004155889</v>
       </c>
       <c r="C123">
-        <v>1.719314275589447</v>
+        <v>0.8419550558489579</v>
       </c>
       <c r="D123">
-        <v>-0.8480438937931731</v>
+        <v>-0.7905638722597934</v>
+      </c>
+      <c r="E123">
+        <v>32</v>
       </c>
       <c r="F123">
         <v>1</v>
@@ -2488,13 +2845,16 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6.608470595289647</v>
+        <v>0.5378672300494488</v>
       </c>
       <c r="C124">
-        <v>9.615284217194404</v>
+        <v>4.992158761558522</v>
       </c>
       <c r="D124">
-        <v>-7.139596649914797</v>
+        <v>-2.858354192733401</v>
+      </c>
+      <c r="E124">
+        <v>32</v>
       </c>
       <c r="F124">
         <v>1</v>
@@ -2505,13 +2865,16 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.3289027132628457</v>
+        <v>0.2881974372283355</v>
       </c>
       <c r="C125">
-        <v>0.1999334961959391</v>
+        <v>-0.8245713251137707</v>
       </c>
       <c r="D125">
-        <v>-0.5045153361160322</v>
+        <v>-0.1151074494630904</v>
+      </c>
+      <c r="E125">
+        <v>32</v>
       </c>
       <c r="F125">
         <v>0</v>
@@ -2522,16 +2885,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>1.204245860657912</v>
+        <v>-0.3395589382421597</v>
       </c>
       <c r="C126">
-        <v>1.337560763903322</v>
+        <v>-0.5231810711378084</v>
       </c>
       <c r="D126">
-        <v>-1.17566076475902</v>
+        <v>-0.9293654401986866</v>
+      </c>
+      <c r="E126">
+        <v>32</v>
       </c>
       <c r="F126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2539,13 +2905,16 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.5850910204606539</v>
+        <v>0.09484200489374972</v>
       </c>
       <c r="C127">
-        <v>0.3592449763174253</v>
+        <v>-0.1543970534285994</v>
       </c>
       <c r="D127">
-        <v>-1.403717906176685</v>
+        <v>-1.090111254851746</v>
+      </c>
+      <c r="E127">
+        <v>32</v>
       </c>
       <c r="F127">
         <v>0</v>
@@ -2556,16 +2925,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.6722759678298849</v>
+        <v>0.3221127868056791</v>
       </c>
       <c r="C128">
-        <v>0.8329530402060334</v>
+        <v>-0.04899010975960846</v>
       </c>
       <c r="D128">
-        <v>-2.597494534937727</v>
+        <v>-2.060251768537622</v>
+      </c>
+      <c r="E128">
+        <v>32</v>
       </c>
       <c r="F128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2573,13 +2945,16 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>-0.209957311519543</v>
+        <v>-0.6174786669643485</v>
       </c>
       <c r="C129">
-        <v>1.035222015427082</v>
+        <v>0.1019721774972875</v>
       </c>
       <c r="D129">
-        <v>-0.7928262789753993</v>
+        <v>-0.612090510309917</v>
+      </c>
+      <c r="E129">
+        <v>32</v>
       </c>
       <c r="F129">
         <v>1</v>
@@ -2590,13 +2965,16 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>-0.5378023472928022</v>
+        <v>0.0001109626484130377</v>
       </c>
       <c r="C130">
-        <v>2.590366166889762</v>
+        <v>0.1374997035224747</v>
       </c>
       <c r="D130">
-        <v>-1.444277697489284</v>
+        <v>-0.3243812484188654</v>
+      </c>
+      <c r="E130">
+        <v>32</v>
       </c>
       <c r="F130">
         <v>1</v>
@@ -2607,13 +2985,16 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>-0.1268977158040201</v>
+        <v>-0.5573050718458064</v>
       </c>
       <c r="C131">
-        <v>0.8957338689201426</v>
+        <v>-0.09143311802881737</v>
       </c>
       <c r="D131">
-        <v>-0.8214945915421161</v>
+        <v>-0.5499706641181648</v>
+      </c>
+      <c r="E131">
+        <v>32</v>
       </c>
       <c r="F131">
         <v>1</v>
@@ -2624,16 +3005,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.3827406861026414</v>
+        <v>0.3362061134746784</v>
       </c>
       <c r="C132">
-        <v>1.162416076051919</v>
+        <v>0.131987694451521</v>
       </c>
       <c r="D132">
-        <v>-2.282470911739456</v>
+        <v>-1.710178980313709</v>
+      </c>
+      <c r="E132">
+        <v>32</v>
       </c>
       <c r="F132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -2641,13 +3025,16 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>-0.6589950731997913</v>
+        <v>-1.225069891466703</v>
       </c>
       <c r="C133">
-        <v>4.561329207635992</v>
+        <v>1.473937085612484</v>
       </c>
       <c r="D133">
-        <v>-2.486161223651106</v>
+        <v>-1.79415385485194</v>
+      </c>
+      <c r="E133">
+        <v>32</v>
       </c>
       <c r="F133">
         <v>1</v>
@@ -2658,13 +3045,16 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>-0.6208230018375811</v>
+        <v>-0.4048745385803718</v>
       </c>
       <c r="C134">
-        <v>1.19128748880674</v>
+        <v>0.3514983409462491</v>
       </c>
       <c r="D134">
-        <v>-1.385476896143258</v>
+        <v>-0.601201920886878</v>
+      </c>
+      <c r="E134">
+        <v>32</v>
       </c>
       <c r="F134">
         <v>1</v>
@@ -2675,13 +3065,16 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>-0.5449296827571555</v>
+        <v>-0.7248365464399242</v>
       </c>
       <c r="C135">
-        <v>1.443666539218078</v>
+        <v>0.3446391675871637</v>
       </c>
       <c r="D135">
-        <v>-0.7584135971175776</v>
+        <v>-0.614107684936239</v>
+      </c>
+      <c r="E135">
+        <v>32</v>
       </c>
       <c r="F135">
         <v>1</v>
@@ -2692,13 +3085,16 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.5198681000492653</v>
+        <v>0.4121350180326421</v>
       </c>
       <c r="C136">
-        <v>-0.6003404284545514</v>
+        <v>-0.9268545133150152</v>
       </c>
       <c r="D136">
-        <v>-1.159374207905224</v>
+        <v>-1.05126369605296</v>
+      </c>
+      <c r="E136">
+        <v>32</v>
       </c>
       <c r="F136">
         <v>0</v>
@@ -2709,16 +3105,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>-0.02980350849858637</v>
+        <v>0.222521934508825</v>
       </c>
       <c r="C137">
-        <v>0.1633254024608006</v>
+        <v>-0.3148972239937849</v>
       </c>
       <c r="D137">
-        <v>-1.563413267090374</v>
+        <v>-1.148523392142901</v>
+      </c>
+      <c r="E137">
+        <v>32</v>
       </c>
       <c r="F137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -2726,13 +3125,16 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>-0.4810858439733493</v>
+        <v>-0.4254721121891111</v>
       </c>
       <c r="C138">
-        <v>0.4904254567451222</v>
+        <v>0.1584412762747601</v>
       </c>
       <c r="D138">
-        <v>-1.434746957561141</v>
+        <v>-1.396402733929688</v>
+      </c>
+      <c r="E138">
+        <v>32</v>
       </c>
       <c r="F138">
         <v>1</v>
@@ -2743,16 +3145,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.7147503887284936</v>
+        <v>-4.665476128139024</v>
       </c>
       <c r="C139">
-        <v>0.265198060348492</v>
+        <v>0.6270102461365672</v>
       </c>
       <c r="D139">
-        <v>0.622588159756897</v>
+        <v>-0.3831154676082413</v>
+      </c>
+      <c r="E139">
+        <v>32</v>
       </c>
       <c r="F139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -2760,13 +3165,16 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>-0.5583560606105643</v>
+        <v>-1.552852212031155</v>
       </c>
       <c r="C140">
-        <v>3.570585374836216</v>
+        <v>1.048690117511058</v>
       </c>
       <c r="D140">
-        <v>-0.9485356042629294</v>
+        <v>-0.8081820769379757</v>
+      </c>
+      <c r="E140">
+        <v>32</v>
       </c>
       <c r="F140">
         <v>1</v>
@@ -2777,13 +3185,16 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.617474371314521</v>
+        <v>0.5146312219609402</v>
       </c>
       <c r="C141">
-        <v>0.015587700189788</v>
+        <v>-0.6232782182978651</v>
       </c>
       <c r="D141">
-        <v>-1.309922983707115</v>
+        <v>-1.281952001396514</v>
+      </c>
+      <c r="E141">
+        <v>32</v>
       </c>
       <c r="F141">
         <v>0</v>
@@ -2794,13 +3205,16 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>0.6644117149140325</v>
+        <v>-0.008527611202214347</v>
       </c>
       <c r="C142">
-        <v>0.5957371445589965</v>
+        <v>-0.09579881844708432</v>
       </c>
       <c r="D142">
-        <v>-1.361461142485154</v>
+        <v>-1.332740008681193</v>
+      </c>
+      <c r="E142">
+        <v>32</v>
       </c>
       <c r="F142">
         <v>0</v>
@@ -2811,13 +3225,16 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>-0.3322581298632028</v>
+        <v>-1.045210335575611</v>
       </c>
       <c r="C143">
-        <v>0.8419562111149662</v>
+        <v>0.07061197340399346</v>
       </c>
       <c r="D143">
-        <v>-0.2147522347288981</v>
+        <v>-0.3435493689916385</v>
+      </c>
+      <c r="E143">
+        <v>32</v>
       </c>
       <c r="F143">
         <v>1</v>
@@ -2828,13 +3245,16 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>-0.07788799459474061</v>
+        <v>-0.7579475395232044</v>
       </c>
       <c r="C144">
-        <v>0.1356111973251474</v>
+        <v>-0.7976036497545282</v>
       </c>
       <c r="D144">
-        <v>0.8519994588273117</v>
+        <v>0.5231513771898275</v>
+      </c>
+      <c r="E144">
+        <v>32</v>
       </c>
       <c r="F144">
         <v>2</v>
@@ -2845,13 +3265,16 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.7587832504165302</v>
+        <v>-2.42318719187929</v>
       </c>
       <c r="C145">
-        <v>-1.483985341417268</v>
+        <v>-0.5687671407511177</v>
       </c>
       <c r="D145">
-        <v>0.8401118064024913</v>
+        <v>0.2022014849921717</v>
+      </c>
+      <c r="E145">
+        <v>32</v>
       </c>
       <c r="F145">
         <v>2</v>
@@ -2862,13 +3285,16 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.2991845422850248</v>
+        <v>-2.674139582808332</v>
       </c>
       <c r="C146">
-        <v>0.6615391347942758</v>
+        <v>1.004848586254379</v>
       </c>
       <c r="D146">
-        <v>-0.5771704513512468</v>
+        <v>-0.895648863335692</v>
+      </c>
+      <c r="E146">
+        <v>32</v>
       </c>
       <c r="F146">
         <v>1</v>
@@ -2879,13 +3305,16 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.2167245076626272</v>
+        <v>-0.2483987856408467</v>
       </c>
       <c r="C147">
-        <v>-0.1790171236563701</v>
+        <v>-0.4953206756964123</v>
       </c>
       <c r="D147">
-        <v>-0.3837493786077998</v>
+        <v>-0.4388515112876527</v>
+      </c>
+      <c r="E147">
+        <v>32</v>
       </c>
       <c r="F147">
         <v>0</v>
@@ -2896,13 +3325,16 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>-0.4701056576069174</v>
+        <v>-0.7705434644032958</v>
       </c>
       <c r="C148">
-        <v>0.7989315695463223</v>
+        <v>-0.1425313462748387</v>
       </c>
       <c r="D148">
-        <v>-0.2937597907170916</v>
+        <v>-0.5158941223259417</v>
+      </c>
+      <c r="E148">
+        <v>32</v>
       </c>
       <c r="F148">
         <v>1</v>
@@ -2913,13 +3345,16 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>-0.61483487874114</v>
+        <v>-0.9992219503048388</v>
       </c>
       <c r="C149">
-        <v>0.9358463052813015</v>
+        <v>0.3419224757346125</v>
       </c>
       <c r="D149">
-        <v>-0.4794868322127392</v>
+        <v>-0.6426794242692435</v>
+      </c>
+      <c r="E149">
+        <v>32</v>
       </c>
       <c r="F149">
         <v>1</v>
@@ -2930,13 +3365,16 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0.1433485195730941</v>
+        <v>-0.4401669989744328</v>
       </c>
       <c r="C150">
-        <v>0.481576025651488</v>
+        <v>-0.1962626410765514</v>
       </c>
       <c r="D150">
-        <v>-0.3954206664920003</v>
+        <v>-0.5660967702580755</v>
+      </c>
+      <c r="E150">
+        <v>32</v>
       </c>
       <c r="F150">
         <v>1</v>
@@ -2947,16 +3385,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>-0.006474456831188302</v>
+        <v>0.0236110947640803</v>
       </c>
       <c r="C151">
-        <v>0.7275146406146465</v>
+        <v>-0.1223415464625948</v>
       </c>
       <c r="D151">
-        <v>-1.442365378746624</v>
+        <v>-1.280432777473386</v>
+      </c>
+      <c r="E151">
+        <v>32</v>
       </c>
       <c r="F151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -2964,13 +3405,16 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>0.1324561331322534</v>
+        <v>-0.5901111022107155</v>
       </c>
       <c r="C152">
-        <v>1.427081468410865</v>
+        <v>0.2331556754389256</v>
       </c>
       <c r="D152">
-        <v>-1.135375739970236</v>
+        <v>-1.055110007046092</v>
+      </c>
+      <c r="E152">
+        <v>32</v>
       </c>
       <c r="F152">
         <v>1</v>
@@ -2981,13 +3425,16 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>1.194025422385532</v>
+        <v>-3.616765030308986</v>
       </c>
       <c r="C153">
-        <v>1.760047551392128</v>
+        <v>1.173996058241477</v>
       </c>
       <c r="D153">
-        <v>-0.5439852001197912</v>
+        <v>-1.195352663814904</v>
+      </c>
+      <c r="E153">
+        <v>32</v>
       </c>
       <c r="F153">
         <v>1</v>
@@ -2998,13 +3445,16 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>-0.2134606894497744</v>
+        <v>-0.5361411749392359</v>
       </c>
       <c r="C154">
-        <v>-1.400301433522325</v>
+        <v>-1.41962485965751</v>
       </c>
       <c r="D154">
-        <v>1.083795445349371</v>
+        <v>0.6806084916731583</v>
+      </c>
+      <c r="E154">
+        <v>33</v>
       </c>
       <c r="F154">
         <v>2</v>
@@ -3015,16 +3465,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>0.3172781204714499</v>
+        <v>-1.004521913552379</v>
       </c>
       <c r="C155">
-        <v>0.4700373002460891</v>
+        <v>-0.6773224144874121</v>
       </c>
       <c r="D155">
-        <v>-0.3254523530139277</v>
+        <v>-0.2066441188041618</v>
+      </c>
+      <c r="E155">
+        <v>33</v>
       </c>
       <c r="F155">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3032,16 +3485,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>-1.053888347495107</v>
+        <v>-0.7955041765802859</v>
       </c>
       <c r="C156">
-        <v>0.2869977621521618</v>
+        <v>-0.3127403824355061</v>
       </c>
       <c r="D156">
-        <v>-0.3824367712236357</v>
+        <v>0.1007358701993106</v>
+      </c>
+      <c r="E156">
+        <v>33</v>
       </c>
       <c r="F156">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3049,13 +3505,16 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>-0.3591724693907035</v>
+        <v>-2.60481043812735</v>
       </c>
       <c r="C157">
-        <v>-1.859885963922114</v>
+        <v>-0.09846398766561856</v>
       </c>
       <c r="D157">
-        <v>0.8058479396341098</v>
+        <v>0.5283183767089825</v>
+      </c>
+      <c r="E157">
+        <v>33</v>
       </c>
       <c r="F157">
         <v>2</v>
@@ -3066,16 +3525,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>-1.401493882127076</v>
+        <v>-0.9973065576097485</v>
       </c>
       <c r="C158">
-        <v>0.3620379737593659</v>
+        <v>-0.03412364758984479</v>
       </c>
       <c r="D158">
-        <v>-0.2135813171915326</v>
+        <v>0.1649943646431284</v>
+      </c>
+      <c r="E158">
+        <v>33</v>
       </c>
       <c r="F158">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3083,13 +3545,16 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>-0.5761233918453496</v>
+        <v>-1.128113945486871</v>
       </c>
       <c r="C159">
-        <v>0.06177359066934224</v>
+        <v>0.1541026030976426</v>
       </c>
       <c r="D159">
-        <v>-0.6577774378770265</v>
+        <v>-0.572712811984375</v>
+      </c>
+      <c r="E159">
+        <v>33</v>
       </c>
       <c r="F159">
         <v>1</v>
@@ -3100,16 +3565,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>-0.1383125032290231</v>
+        <v>-0.2977343000850766</v>
       </c>
       <c r="C160">
-        <v>-0.6055641401176205</v>
+        <v>-0.4170867932979264</v>
       </c>
       <c r="D160">
-        <v>-0.3411095919524287</v>
+        <v>-0.1933861044274542</v>
+      </c>
+      <c r="E160">
+        <v>33</v>
       </c>
       <c r="F160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3117,13 +3585,16 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>-0.587355456406821</v>
+        <v>-0.6587628172581578</v>
       </c>
       <c r="C161">
-        <v>-0.2271444772231255</v>
+        <v>-0.128145468300927</v>
       </c>
       <c r="D161">
-        <v>-0.2485199771617634</v>
+        <v>-0.1968415784535716</v>
+      </c>
+      <c r="E161">
+        <v>33</v>
       </c>
       <c r="F161">
         <v>1</v>
@@ -3134,16 +3605,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>-0.8870197536690336</v>
+        <v>-1.111371663742498</v>
       </c>
       <c r="C162">
-        <v>0.2640923662845122</v>
+        <v>-0.4430945671866754</v>
       </c>
       <c r="D162">
-        <v>-0.01231765906053756</v>
+        <v>-0.2234289864119609</v>
+      </c>
+      <c r="E162">
+        <v>33</v>
       </c>
       <c r="F162">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3151,16 +3625,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>-1.602591115765263</v>
+        <v>-2.145471455720039</v>
       </c>
       <c r="C163">
-        <v>0.7217665082824967</v>
+        <v>0.09005157451095641</v>
       </c>
       <c r="D163">
-        <v>0.7155743629778413</v>
+        <v>0.3119840946217269</v>
+      </c>
+      <c r="E163">
+        <v>33</v>
       </c>
       <c r="F163">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3168,13 +3645,16 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>-0.9010611739244544</v>
+        <v>-1.25090959610055</v>
       </c>
       <c r="C164">
-        <v>-0.1172704396015052</v>
+        <v>-0.2623618140142026</v>
       </c>
       <c r="D164">
-        <v>0.07319050575629399</v>
+        <v>0.06410948613768469</v>
+      </c>
+      <c r="E164">
+        <v>33</v>
       </c>
       <c r="F164">
         <v>2</v>
@@ -3185,16 +3665,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>-1.389081832597064</v>
+        <v>-1.584949073915573</v>
       </c>
       <c r="C165">
-        <v>0.8191048971902894</v>
+        <v>0.04537515816348239</v>
       </c>
       <c r="D165">
-        <v>-0.3351200098189132</v>
+        <v>0.0976768744751349</v>
+      </c>
+      <c r="E165">
+        <v>33</v>
       </c>
       <c r="F165">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3202,13 +3685,16 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>-0.9018686409772498</v>
+        <v>-1.666434388321122</v>
       </c>
       <c r="C166">
-        <v>-0.07331166297478797</v>
+        <v>-0.4647424263468246</v>
       </c>
       <c r="D166">
-        <v>1.079933235121381</v>
+        <v>0.7619303437554379</v>
+      </c>
+      <c r="E166">
+        <v>33</v>
       </c>
       <c r="F166">
         <v>2</v>
@@ -3219,13 +3705,16 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>-1.608352461738412</v>
+        <v>-1.23376124829208</v>
       </c>
       <c r="C167">
-        <v>-0.009164616463644415</v>
+        <v>-0.1111428754534254</v>
       </c>
       <c r="D167">
-        <v>0.1866905633111793</v>
+        <v>0.3225904414717561</v>
+      </c>
+      <c r="E167">
+        <v>33</v>
       </c>
       <c r="F167">
         <v>2</v>
@@ -3236,13 +3725,16 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>-1.290391241994423</v>
+        <v>-1.68345408850884</v>
       </c>
       <c r="C168">
-        <v>0.9806402174602704</v>
+        <v>0.2813054276133076</v>
       </c>
       <c r="D168">
-        <v>-0.1723752896178762</v>
+        <v>-0.2682126764390126</v>
+      </c>
+      <c r="E168">
+        <v>33</v>
       </c>
       <c r="F168">
         <v>1</v>
@@ -3253,13 +3745,16 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>-1.422320506415759</v>
+        <v>-0.9981684042248515</v>
       </c>
       <c r="C169">
-        <v>-0.6410595164996614</v>
+        <v>-0.5180074521717495</v>
       </c>
       <c r="D169">
-        <v>0.6122944357309401</v>
+        <v>0.6047843690936616</v>
+      </c>
+      <c r="E169">
+        <v>33</v>
       </c>
       <c r="F169">
         <v>2</v>
@@ -3270,16 +3765,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>-1.647265898170399</v>
+        <v>-1.758522480163718</v>
       </c>
       <c r="C170">
-        <v>1.124314648933356</v>
+        <v>0.1821369111195212</v>
       </c>
       <c r="D170">
-        <v>-0.1696057062328184</v>
+        <v>0.4521441734027633</v>
+      </c>
+      <c r="E170">
+        <v>33</v>
       </c>
       <c r="F170">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3287,16 +3785,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>-0.2080761111271259</v>
+        <v>-1.569574041618463</v>
       </c>
       <c r="C171">
-        <v>-0.33508713142486</v>
+        <v>0.1581911161911376</v>
       </c>
       <c r="D171">
-        <v>-0.05973879414713895</v>
+        <v>-0.05139252637807595</v>
+      </c>
+      <c r="E171">
+        <v>33</v>
       </c>
       <c r="F171">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3304,13 +3805,16 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>-1.467424007471472</v>
+        <v>-1.633197411197112</v>
       </c>
       <c r="C172">
-        <v>0.2673500928575862</v>
+        <v>-0.1416952322561206</v>
       </c>
       <c r="D172">
-        <v>0.2779895545202998</v>
+        <v>0.3054857131948263</v>
+      </c>
+      <c r="E172">
+        <v>33</v>
       </c>
       <c r="F172">
         <v>2</v>
@@ -3321,16 +3825,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>-0.9658489515805233</v>
+        <v>-1.567200200661833</v>
       </c>
       <c r="C173">
-        <v>0.682039343022528</v>
+        <v>0.09360602057425536</v>
       </c>
       <c r="D173">
-        <v>-0.05322245371982315</v>
+        <v>0.1558575805930051</v>
+      </c>
+      <c r="E173">
+        <v>33</v>
       </c>
       <c r="F173">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3338,13 +3845,16 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>-1.006528964002168</v>
+        <v>-1.069952921539869</v>
       </c>
       <c r="C174">
-        <v>-0.3573789240687875</v>
+        <v>-0.2570518859555854</v>
       </c>
       <c r="D174">
-        <v>0.1037186648722908</v>
+        <v>0.3770827186386547</v>
+      </c>
+      <c r="E174">
+        <v>33</v>
       </c>
       <c r="F174">
         <v>2</v>
@@ -3355,13 +3865,16 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>-0.8657837039711305</v>
+        <v>-1.096513582840772</v>
       </c>
       <c r="C175">
-        <v>0.3322972909875963</v>
+        <v>0.08769334961100415</v>
       </c>
       <c r="D175">
-        <v>-0.2468745522036226</v>
+        <v>-0.1124358824196431</v>
+      </c>
+      <c r="E175">
+        <v>33</v>
       </c>
       <c r="F175">
         <v>1</v>
@@ -3372,13 +3885,16 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>0.4313997278674337</v>
+        <v>-11.26256025481942</v>
       </c>
       <c r="C176">
-        <v>-5.475039157996115</v>
+        <v>1.759727458888988</v>
       </c>
       <c r="D176">
-        <v>5.071781290847141</v>
+        <v>2.883575207223674</v>
+      </c>
+      <c r="E176">
+        <v>33</v>
       </c>
       <c r="F176">
         <v>2</v>
@@ -3389,16 +3905,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>-0.5546736845546899</v>
+        <v>-0.7143663144868074</v>
       </c>
       <c r="C177">
-        <v>0.1153158345965215</v>
+        <v>-0.4799809586364709</v>
       </c>
       <c r="D177">
-        <v>-0.4578832217612271</v>
+        <v>0.1026662073960468</v>
+      </c>
+      <c r="E177">
+        <v>33</v>
       </c>
       <c r="F177">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3406,13 +3925,16 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>-1.283561749145964</v>
+        <v>-1.131676107992919</v>
       </c>
       <c r="C178">
-        <v>0.1199780188412163</v>
+        <v>-0.3942986463790857</v>
       </c>
       <c r="D178">
-        <v>0.3637810685191901</v>
+        <v>0.3246130301279813</v>
+      </c>
+      <c r="E178">
+        <v>33</v>
       </c>
       <c r="F178">
         <v>2</v>
@@ -3423,16 +3945,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>-1.172261428153109</v>
+        <v>-0.7108254783480783</v>
       </c>
       <c r="C179">
-        <v>0.5046644942947541</v>
+        <v>-0.3657368413505043</v>
       </c>
       <c r="D179">
-        <v>-0.550953599027617</v>
+        <v>0.2466545414210473</v>
+      </c>
+      <c r="E179">
+        <v>33</v>
       </c>
       <c r="F179">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3440,13 +3965,16 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>-0.3323830654076292</v>
+        <v>-0.6326049710055591</v>
       </c>
       <c r="C180">
-        <v>-0.3320917843728304</v>
+        <v>-0.8014605159114909</v>
       </c>
       <c r="D180">
-        <v>0.05560337012871475</v>
+        <v>0.176655795998492</v>
+      </c>
+      <c r="E180">
+        <v>33</v>
       </c>
       <c r="F180">
         <v>2</v>
@@ -3457,13 +3985,16 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>-0.9586477582919091</v>
+        <v>-1.118179786684359</v>
       </c>
       <c r="C181">
-        <v>0.3718860037432181</v>
+        <v>0.05613794142401378</v>
       </c>
       <c r="D181">
-        <v>-0.3871490208900624</v>
+        <v>-0.05523328164250652</v>
+      </c>
+      <c r="E181">
+        <v>33</v>
       </c>
       <c r="F181">
         <v>1</v>
@@ -3474,13 +4005,16 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>-1.467765732117844</v>
+        <v>-1.156343111865479</v>
       </c>
       <c r="C182">
-        <v>-0.252669077607713</v>
+        <v>-0.3591540038871442</v>
       </c>
       <c r="D182">
-        <v>0.8773395127187003</v>
+        <v>0.5797969762318251</v>
+      </c>
+      <c r="E182">
+        <v>33</v>
       </c>
       <c r="F182">
         <v>2</v>
@@ -3491,16 +4025,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>-1.202883510059753</v>
+        <v>-0.5870927588713811</v>
       </c>
       <c r="C183">
-        <v>0.3237859747614679</v>
+        <v>-0.1863845899397092</v>
       </c>
       <c r="D183">
-        <v>-0.4529403654296659</v>
+        <v>0.234480765649766</v>
+      </c>
+      <c r="E183">
+        <v>33</v>
       </c>
       <c r="F183">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -3508,13 +4045,16 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6.66343897064715</v>
+        <v>0.2790329208164944</v>
       </c>
       <c r="C184">
-        <v>11.73127536585971</v>
+        <v>5.654559003046369</v>
       </c>
       <c r="D184">
-        <v>-7.915420232781093</v>
+        <v>-3.303821687690755</v>
+      </c>
+      <c r="E184">
+        <v>34</v>
       </c>
       <c r="F184">
         <v>1</v>
@@ -3525,13 +4065,16 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>0.07204250093281384</v>
+        <v>-0.7252973050916852</v>
       </c>
       <c r="C185">
-        <v>3.195766355598763</v>
+        <v>0.6913301027281893</v>
       </c>
       <c r="D185">
-        <v>-2.286395268003072</v>
+        <v>-1.3928354000984</v>
+      </c>
+      <c r="E185">
+        <v>34</v>
       </c>
       <c r="F185">
         <v>1</v>
@@ -3542,16 +4085,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>-0.1423836366708724</v>
+        <v>0.4468558622520918</v>
       </c>
       <c r="C186">
-        <v>0.8837878722617096</v>
+        <v>-0.3535784105064902</v>
       </c>
       <c r="D186">
-        <v>-1.692340973084983</v>
+        <v>-0.5095520139338487</v>
+      </c>
+      <c r="E186">
+        <v>34</v>
       </c>
       <c r="F186">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -3559,13 +4105,16 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>-0.1626678383056357</v>
+        <v>-0.390312918592041</v>
       </c>
       <c r="C187">
-        <v>1.398500733198321</v>
+        <v>0.2324070317115718</v>
       </c>
       <c r="D187">
-        <v>-1.58472006492475</v>
+        <v>-1.125549090772673</v>
+      </c>
+      <c r="E187">
+        <v>34</v>
       </c>
       <c r="F187">
         <v>1</v>
@@ -3576,13 +4125,16 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>-0.6367150152408276</v>
+        <v>-0.8376219169312691</v>
       </c>
       <c r="C188">
-        <v>5.558763672546246</v>
+        <v>1.851314266363582</v>
       </c>
       <c r="D188">
-        <v>-2.918397441544464</v>
+        <v>-1.77287733904247</v>
+      </c>
+      <c r="E188">
+        <v>34</v>
       </c>
       <c r="F188">
         <v>1</v>
@@ -3593,16 +4145,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>-1.017771080869375</v>
+        <v>-0.1184053622916935</v>
       </c>
       <c r="C189">
-        <v>0.04517143567046339</v>
+        <v>-0.4049271985705356</v>
       </c>
       <c r="D189">
-        <v>-0.5941693441450305</v>
+        <v>0.03845101767669251</v>
+      </c>
+      <c r="E189">
+        <v>34</v>
       </c>
       <c r="F189">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -3610,13 +4165,16 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>-0.2568746555061789</v>
+        <v>-0.3941796861948472</v>
       </c>
       <c r="C190">
-        <v>4.041538343645716</v>
+        <v>1.061958194616042</v>
       </c>
       <c r="D190">
-        <v>-2.775750306602678</v>
+        <v>-1.26589944952819</v>
+      </c>
+      <c r="E190">
+        <v>34</v>
       </c>
       <c r="F190">
         <v>1</v>
@@ -3627,16 +4185,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>-0.3143389408494142</v>
+        <v>-0.2842386690174174</v>
       </c>
       <c r="C191">
-        <v>-0.07387000952035661</v>
+        <v>-0.5405194198205265</v>
       </c>
       <c r="D191">
-        <v>-0.6217467573165012</v>
+        <v>-0.3706255277144828</v>
+      </c>
+      <c r="E191">
+        <v>34</v>
       </c>
       <c r="F191">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -3644,13 +4205,16 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>-1.340276843579741</v>
+        <v>-0.9191900847158185</v>
       </c>
       <c r="C192">
-        <v>-0.07923201436082528</v>
+        <v>-0.3888363581231435</v>
       </c>
       <c r="D192">
-        <v>0.4217075896949334</v>
+        <v>0.308598978554984</v>
+      </c>
+      <c r="E192">
+        <v>34</v>
       </c>
       <c r="F192">
         <v>2</v>
@@ -3661,13 +4225,16 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>-0.8849808657158315</v>
+        <v>-0.7485081595698216</v>
       </c>
       <c r="C193">
-        <v>0.03075260199270924</v>
+        <v>-0.1502471522222862</v>
       </c>
       <c r="D193">
-        <v>-0.6639381859174416</v>
+        <v>-0.3871117523776678</v>
+      </c>
+      <c r="E193">
+        <v>34</v>
       </c>
       <c r="F193">
         <v>1</v>
@@ -3678,16 +4245,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>-0.3232053193769626</v>
+        <v>-0.09593685892505333</v>
       </c>
       <c r="C194">
-        <v>0.5778046327195649</v>
+        <v>-0.1517319776735308</v>
       </c>
       <c r="D194">
-        <v>-1.592156360686807</v>
+        <v>-1.199990157128129</v>
+      </c>
+      <c r="E194">
+        <v>34</v>
       </c>
       <c r="F194">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -3695,13 +4265,16 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>-0.8845923304729235</v>
+        <v>-0.8182888892170976</v>
       </c>
       <c r="C195">
-        <v>4.14822416479748</v>
+        <v>1.016821047291534</v>
       </c>
       <c r="D195">
-        <v>-1.844682292379671</v>
+        <v>-0.7936428232735389</v>
+      </c>
+      <c r="E195">
+        <v>34</v>
       </c>
       <c r="F195">
         <v>1</v>
@@ -3712,13 +4285,16 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>-0.2629620650941402</v>
+        <v>-0.2523502464572447</v>
       </c>
       <c r="C196">
-        <v>1.413323803954396</v>
+        <v>0.003121802939091325</v>
       </c>
       <c r="D196">
-        <v>-1.362979834334603</v>
+        <v>-0.6728986204885157</v>
+      </c>
+      <c r="E196">
+        <v>34</v>
       </c>
       <c r="F196">
         <v>1</v>
@@ -3729,13 +4305,16 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>-0.2256957616922677</v>
+        <v>-0.161990850368452</v>
       </c>
       <c r="C197">
-        <v>4.977921412781148</v>
+        <v>0.9911278762931857</v>
       </c>
       <c r="D197">
-        <v>-3.534151436581241</v>
+        <v>-1.564368898412505</v>
+      </c>
+      <c r="E197">
+        <v>34</v>
       </c>
       <c r="F197">
         <v>1</v>
@@ -3746,13 +4325,16 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>-0.5665041810046365</v>
+        <v>-0.296464718609724</v>
       </c>
       <c r="C198">
-        <v>0.7120807188202679</v>
+        <v>-0.03964511221832334</v>
       </c>
       <c r="D198">
-        <v>-0.8828308768341526</v>
+        <v>-0.4990608163603638</v>
+      </c>
+      <c r="E198">
+        <v>34</v>
       </c>
       <c r="F198">
         <v>1</v>
@@ -3763,13 +4345,16 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>0.1749000865686678</v>
+        <v>-1.441979678452224</v>
       </c>
       <c r="C199">
-        <v>4.16585803425976</v>
+        <v>0.4119965994393676</v>
       </c>
       <c r="D199">
-        <v>-1.387726702901968</v>
+        <v>-0.8873705136061796</v>
+      </c>
+      <c r="E199">
+        <v>34</v>
       </c>
       <c r="F199">
         <v>1</v>
@@ -3780,13 +4365,16 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>-0.3839378692003601</v>
+        <v>-0.4300985804454465</v>
       </c>
       <c r="C200">
-        <v>3.677177094415365</v>
+        <v>1.021441205345524</v>
       </c>
       <c r="D200">
-        <v>-2.384620031403026</v>
+        <v>-1.102130737094175</v>
+      </c>
+      <c r="E200">
+        <v>34</v>
       </c>
       <c r="F200">
         <v>1</v>
@@ -3797,16 +4385,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>-0.5355292879315561</v>
+        <v>0.4690176707108774</v>
       </c>
       <c r="C201">
-        <v>2.486663000228776</v>
+        <v>0.1333712272415293</v>
       </c>
       <c r="D201">
-        <v>-2.047411600506103</v>
+        <v>-0.3409880244072503</v>
+      </c>
+      <c r="E201">
+        <v>34</v>
       </c>
       <c r="F201">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -3814,16 +4405,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>-0.4776934743683221</v>
+        <v>0.1416106910332081</v>
       </c>
       <c r="C202">
-        <v>0.6200210455385959</v>
+        <v>-0.3144210649268954</v>
       </c>
       <c r="D202">
-        <v>-1.311839962360354</v>
+        <v>-0.4238640461469612</v>
+      </c>
+      <c r="E202">
+        <v>34</v>
       </c>
       <c r="F202">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -3831,13 +4425,16 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>0.2869785733100458</v>
+        <v>-0.1488082396399599</v>
       </c>
       <c r="C203">
-        <v>3.844402988116892</v>
+        <v>1.18055160328842</v>
       </c>
       <c r="D203">
-        <v>-2.93505854457786</v>
+        <v>-1.870716129714839</v>
+      </c>
+      <c r="E203">
+        <v>34</v>
       </c>
       <c r="F203">
         <v>1</v>
@@ -3848,13 +4445,16 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>-0.7251511877236043</v>
+        <v>-0.958296000088843</v>
       </c>
       <c r="C204">
-        <v>1.409675250195527</v>
+        <v>0.4644521054073922</v>
       </c>
       <c r="D204">
-        <v>-0.9280552367082309</v>
+        <v>-0.3100870683861701</v>
+      </c>
+      <c r="E204">
+        <v>34</v>
       </c>
       <c r="F204">
         <v>1</v>
@@ -3865,13 +4465,16 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>-0.6675994699546598</v>
+        <v>-0.4494200764702148</v>
       </c>
       <c r="C205">
-        <v>1.259001523185605</v>
+        <v>0.1419357837006367</v>
       </c>
       <c r="D205">
-        <v>-1.084810601579536</v>
+        <v>-0.3919144966733199</v>
+      </c>
+      <c r="E205">
+        <v>34</v>
       </c>
       <c r="F205">
         <v>1</v>
@@ -3882,13 +4485,16 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>-1.471997698531959</v>
+        <v>-1.188525702049759</v>
       </c>
       <c r="C206">
-        <v>2.368909845567162</v>
+        <v>0.7137974335779644</v>
       </c>
       <c r="D206">
-        <v>-0.9025965661449049</v>
+        <v>-0.2121883000006555</v>
+      </c>
+      <c r="E206">
+        <v>34</v>
       </c>
       <c r="F206">
         <v>1</v>
@@ -3899,13 +4505,16 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>-0.8277414576313546</v>
+        <v>-1.243110170268765</v>
       </c>
       <c r="C207">
-        <v>3.993861727777408</v>
+        <v>1.538846274504346</v>
       </c>
       <c r="D207">
-        <v>-2.069888778194689</v>
+        <v>-1.250567028764374</v>
+      </c>
+      <c r="E207">
+        <v>34</v>
       </c>
       <c r="F207">
         <v>1</v>
@@ -3916,13 +4525,16 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>-0.4918561249204606</v>
+        <v>-0.3863629454835658</v>
       </c>
       <c r="C208">
-        <v>4.336161881142627</v>
+        <v>1.20476493787091</v>
       </c>
       <c r="D208">
-        <v>-2.538454264263159</v>
+        <v>-0.9964777821145978</v>
+      </c>
+      <c r="E208">
+        <v>34</v>
       </c>
       <c r="F208">
         <v>1</v>
@@ -3933,13 +4545,16 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>-0.3492547696556743</v>
+        <v>-0.1378462274306781</v>
       </c>
       <c r="C209">
-        <v>-0.3877276630687274</v>
+        <v>-0.4842334823812861</v>
       </c>
       <c r="D209">
-        <v>-0.7514348538084854</v>
+        <v>-0.5378872844500916</v>
+      </c>
+      <c r="E209">
+        <v>34</v>
       </c>
       <c r="F209">
         <v>0</v>
@@ -3950,16 +4565,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>-0.6943307747897678</v>
+        <v>-0.08981490835883121</v>
       </c>
       <c r="C210">
-        <v>0.4401942314397549</v>
+        <v>-0.1487534315241384</v>
       </c>
       <c r="D210">
-        <v>-0.9398019445747712</v>
+        <v>-0.518819127043405</v>
+      </c>
+      <c r="E210">
+        <v>34</v>
       </c>
       <c r="F210">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -3967,13 +4585,16 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>-0.3570578899657926</v>
+        <v>-0.524473182251181</v>
       </c>
       <c r="C211">
-        <v>0.8796533658821972</v>
+        <v>-0.1689760693104234</v>
       </c>
       <c r="D211">
-        <v>-1.009816892497862</v>
+        <v>-0.5443403076781193</v>
+      </c>
+      <c r="E211">
+        <v>34</v>
       </c>
       <c r="F211">
         <v>1</v>
@@ -3984,13 +4605,16 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>-0.4996775474459716</v>
+        <v>-0.6464188980594268</v>
       </c>
       <c r="C212">
-        <v>0.6599479774310695</v>
+        <v>-0.04979464804819791</v>
       </c>
       <c r="D212">
-        <v>-0.8875607121653379</v>
+        <v>-0.3081580218752975</v>
+      </c>
+      <c r="E212">
+        <v>34</v>
       </c>
       <c r="F212">
         <v>1</v>
@@ -4001,13 +4625,16 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>-0.8203396821383393</v>
+        <v>0.05049692416497509</v>
       </c>
       <c r="C213">
-        <v>2.280529516018369</v>
+        <v>0.3793596521597167</v>
       </c>
       <c r="D213">
-        <v>-2.241738018952984</v>
+        <v>-0.4330880924984238</v>
+      </c>
+      <c r="E213">
+        <v>34</v>
       </c>
       <c r="F213">
         <v>1</v>
@@ -4018,13 +4645,16 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>-0.7214148750835072</v>
+        <v>-0.4128326287640233</v>
       </c>
       <c r="C214">
-        <v>2.854821088366398</v>
+        <v>0.9219842856565477</v>
       </c>
       <c r="D214">
-        <v>-1.836340923414149</v>
+        <v>-0.8332071126364196</v>
+      </c>
+      <c r="E214">
+        <v>35</v>
       </c>
       <c r="F214">
         <v>1</v>
@@ -4035,13 +4665,16 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>-0.8391735843203181</v>
+        <v>-0.6213895462403203</v>
       </c>
       <c r="C215">
-        <v>2.212090596793241</v>
+        <v>0.8596940722415087</v>
       </c>
       <c r="D215">
-        <v>-1.59586999282384</v>
+        <v>-0.846541691647128</v>
+      </c>
+      <c r="E215">
+        <v>35</v>
       </c>
       <c r="F215">
         <v>1</v>
@@ -4052,13 +4685,16 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>-0.7601819061602109</v>
+        <v>-0.3690255933549803</v>
       </c>
       <c r="C216">
-        <v>3.630516496928777</v>
+        <v>1.393321493124699</v>
       </c>
       <c r="D216">
-        <v>-2.980619049670804</v>
+        <v>-1.435129297736229</v>
+      </c>
+      <c r="E216">
+        <v>35</v>
       </c>
       <c r="F216">
         <v>1</v>
@@ -4069,13 +4705,16 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>-1.251619465854622</v>
+        <v>-0.3424390739463969</v>
       </c>
       <c r="C217">
-        <v>4.344743704275991</v>
+        <v>1.598310048632106</v>
       </c>
       <c r="D217">
-        <v>-2.689125700685691</v>
+        <v>-1.130656100123099</v>
+      </c>
+      <c r="E217">
+        <v>35</v>
       </c>
       <c r="F217">
         <v>1</v>
@@ -4086,13 +4725,16 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>-1.012042598555841</v>
+        <v>-0.9753787654777328</v>
       </c>
       <c r="C218">
-        <v>3.951837236334488</v>
+        <v>1.821704196555826</v>
       </c>
       <c r="D218">
-        <v>-2.576616297385133</v>
+        <v>-1.385961782627803</v>
+      </c>
+      <c r="E218">
+        <v>35</v>
       </c>
       <c r="F218">
         <v>1</v>
@@ -4103,13 +4745,16 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>-0.8520076548887298</v>
+        <v>-0.6676350942273181</v>
       </c>
       <c r="C219">
-        <v>3.784750696901416</v>
+        <v>1.687787611082607</v>
       </c>
       <c r="D219">
-        <v>-2.796365921173218</v>
+        <v>-1.611124208144412</v>
+      </c>
+      <c r="E219">
+        <v>35</v>
       </c>
       <c r="F219">
         <v>1</v>
@@ -4120,16 +4765,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>-0.105472888501364</v>
+        <v>0.07352984288962894</v>
       </c>
       <c r="C220">
-        <v>0.2710558365362308</v>
+        <v>-0.1190227980019543</v>
       </c>
       <c r="D220">
-        <v>-1.831757436016633</v>
+        <v>-1.309459036414159</v>
+      </c>
+      <c r="E220">
+        <v>35</v>
       </c>
       <c r="F220">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4137,13 +4785,16 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>-0.4778979538109713</v>
+        <v>-0.7024363778835292</v>
       </c>
       <c r="C221">
-        <v>4.543008537854967</v>
+        <v>1.60537339215393</v>
       </c>
       <c r="D221">
-        <v>-2.691593266914271</v>
+        <v>-0.9909914864442244</v>
+      </c>
+      <c r="E221">
+        <v>35</v>
       </c>
       <c r="F221">
         <v>1</v>
@@ -4154,13 +4805,16 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>-0.5814497074115469</v>
+        <v>-0.6173080842773064</v>
       </c>
       <c r="C222">
-        <v>2.709869272133379</v>
+        <v>0.9945468279230663</v>
       </c>
       <c r="D222">
-        <v>-1.821978660551641</v>
+        <v>-0.8234201291810066</v>
+      </c>
+      <c r="E222">
+        <v>35</v>
       </c>
       <c r="F222">
         <v>1</v>
@@ -4171,13 +4825,16 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>-0.1892596459436575</v>
+        <v>-0.04594511213779084</v>
       </c>
       <c r="C223">
-        <v>1.308615380818138</v>
+        <v>0.2906015197677299</v>
       </c>
       <c r="D223">
-        <v>-1.803227773568706</v>
+        <v>-0.937139200806731</v>
+      </c>
+      <c r="E223">
+        <v>35</v>
       </c>
       <c r="F223">
         <v>1</v>
@@ -4188,13 +4845,16 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>-1.013095453230755</v>
+        <v>1.06211875540407</v>
       </c>
       <c r="C224">
-        <v>5.23584407111744</v>
+        <v>1.14189215193125</v>
       </c>
       <c r="D224">
-        <v>-4.079112633540693</v>
+        <v>-0.7838837440412716</v>
+      </c>
+      <c r="E224">
+        <v>35</v>
       </c>
       <c r="F224">
         <v>1</v>
@@ -4205,16 +4865,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>0.1749943304562878</v>
+        <v>0.3297464194117191</v>
       </c>
       <c r="C225">
-        <v>1.807110910101365</v>
+        <v>0.2977271124222141</v>
       </c>
       <c r="D225">
-        <v>-2.373775137612209</v>
+        <v>-1.323531173417926</v>
+      </c>
+      <c r="E225">
+        <v>35</v>
       </c>
       <c r="F225">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4222,13 +4885,16 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>0.06063740103376314</v>
+        <v>-0.1811902063309995</v>
       </c>
       <c r="C226">
-        <v>4.752993778519969</v>
+        <v>1.159542878857718</v>
       </c>
       <c r="D226">
-        <v>-2.975570708156333</v>
+        <v>-1.159777043520114</v>
+      </c>
+      <c r="E226">
+        <v>35</v>
       </c>
       <c r="F226">
         <v>1</v>
@@ -4239,13 +4905,16 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>0.2628432139542896</v>
+        <v>-0.4384810068611992</v>
       </c>
       <c r="C227">
-        <v>5.334268224832886</v>
+        <v>1.665919567283912</v>
       </c>
       <c r="D227">
-        <v>-3.056293459219959</v>
+        <v>-1.715766009514682</v>
+      </c>
+      <c r="E227">
+        <v>35</v>
       </c>
       <c r="F227">
         <v>1</v>
@@ -4256,13 +4925,16 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>-0.2808942535274104</v>
+        <v>-0.07617181257282868</v>
       </c>
       <c r="C228">
-        <v>1.231517661319637</v>
+        <v>0.4710446758055559</v>
       </c>
       <c r="D228">
-        <v>-1.995806444935212</v>
+        <v>-1.701642649561182</v>
+      </c>
+      <c r="E228">
+        <v>35</v>
       </c>
       <c r="F228">
         <v>1</v>
@@ -4273,13 +4945,16 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>0.8166397091086874</v>
+        <v>0.2712842360658329</v>
       </c>
       <c r="C229">
-        <v>3.186911140899057</v>
+        <v>0.6088181378274163</v>
       </c>
       <c r="D229">
-        <v>-3.385991568551471</v>
+        <v>-1.850003500383968</v>
+      </c>
+      <c r="E229">
+        <v>35</v>
       </c>
       <c r="F229">
         <v>1</v>
@@ -4290,13 +4965,16 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>-0.4502396008395784</v>
+        <v>-0.816276258568574</v>
       </c>
       <c r="C230">
-        <v>3.684097783180345</v>
+        <v>1.403750592052435</v>
       </c>
       <c r="D230">
-        <v>-2.277450305748843</v>
+        <v>-1.30752626583024</v>
+      </c>
+      <c r="E230">
+        <v>35</v>
       </c>
       <c r="F230">
         <v>1</v>
@@ -4307,13 +4985,16 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>-0.2228879308476936</v>
+        <v>-0.3951132909419625</v>
       </c>
       <c r="C231">
-        <v>2.131115448004929</v>
+        <v>0.8344528747300499</v>
       </c>
       <c r="D231">
-        <v>-1.920606766135456</v>
+        <v>-1.100455618541018</v>
+      </c>
+      <c r="E231">
+        <v>35</v>
       </c>
       <c r="F231">
         <v>1</v>
@@ -4324,13 +5005,16 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>-0.6056355892684078</v>
+        <v>-1.096955276268233</v>
       </c>
       <c r="C232">
-        <v>3.219808712647543</v>
+        <v>1.518987973860958</v>
       </c>
       <c r="D232">
-        <v>-1.89003002398132</v>
+        <v>-0.9632214160275137</v>
+      </c>
+      <c r="E232">
+        <v>35</v>
       </c>
       <c r="F232">
         <v>1</v>
@@ -4341,13 +5025,16 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>-0.3665156360906556</v>
+        <v>-0.4535209569294158</v>
       </c>
       <c r="C233">
-        <v>3.193536039858046</v>
+        <v>0.8877880430748173</v>
       </c>
       <c r="D233">
-        <v>-2.068814866004302</v>
+        <v>-1.070079216821842</v>
+      </c>
+      <c r="E233">
+        <v>35</v>
       </c>
       <c r="F233">
         <v>1</v>
@@ -4358,16 +5045,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>0.3658837416574552</v>
+        <v>0.2264228274182022</v>
       </c>
       <c r="C234">
-        <v>0.7373639331505738</v>
+        <v>-0.1460776221917445</v>
       </c>
       <c r="D234">
-        <v>-1.712319393272788</v>
+        <v>-1.26654447420248</v>
+      </c>
+      <c r="E234">
+        <v>35</v>
       </c>
       <c r="F234">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -4375,13 +5065,16 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>0.1803982088408034</v>
+        <v>-0.327639579248833</v>
       </c>
       <c r="C235">
-        <v>1.81556713211691</v>
+        <v>0.3145192076810413</v>
       </c>
       <c r="D235">
-        <v>-1.866362736350859</v>
+        <v>-1.257568112596418</v>
+      </c>
+      <c r="E235">
+        <v>35</v>
       </c>
       <c r="F235">
         <v>1</v>
@@ -4392,13 +5085,16 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>-0.5806873749977998</v>
+        <v>-0.7426991922254728</v>
       </c>
       <c r="C236">
-        <v>5.112825634407874</v>
+        <v>1.432008522297346</v>
       </c>
       <c r="D236">
-        <v>-2.309411662929164</v>
+        <v>-0.8446507344763758</v>
+      </c>
+      <c r="E236">
+        <v>35</v>
       </c>
       <c r="F236">
         <v>1</v>
@@ -4409,13 +5105,16 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>0.2886476236537159</v>
+        <v>-0.009183980633872824</v>
       </c>
       <c r="C237">
-        <v>4.726610828526753</v>
+        <v>1.310606923665161</v>
       </c>
       <c r="D237">
-        <v>-3.197606116809652</v>
+        <v>-1.616515525944781</v>
+      </c>
+      <c r="E237">
+        <v>35</v>
       </c>
       <c r="F237">
         <v>1</v>
@@ -4426,13 +5125,16 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>-0.3425602131967804</v>
+        <v>-0.6176808739788714</v>
       </c>
       <c r="C238">
-        <v>2.61175195316708</v>
+        <v>0.8248644414426174</v>
       </c>
       <c r="D238">
-        <v>-1.876416494666486</v>
+        <v>-1.103985134452155</v>
+      </c>
+      <c r="E238">
+        <v>35</v>
       </c>
       <c r="F238">
         <v>1</v>
@@ -4443,13 +5145,16 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>-0.2786026580476333</v>
+        <v>0.1410421077709949</v>
       </c>
       <c r="C239">
-        <v>3.353519154062944</v>
+        <v>0.8279953602444112</v>
       </c>
       <c r="D239">
-        <v>-2.770745074530323</v>
+        <v>-0.9243206674497544</v>
+      </c>
+      <c r="E239">
+        <v>35</v>
       </c>
       <c r="F239">
         <v>1</v>
@@ -4460,16 +5165,19 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>0.3408075656063454</v>
+        <v>0.1858325245727985</v>
       </c>
       <c r="C240">
-        <v>0.810418663527696</v>
+        <v>0.02706625572715445</v>
       </c>
       <c r="D240">
-        <v>-1.803499139775429</v>
+        <v>-1.354224610080363</v>
+      </c>
+      <c r="E240">
+        <v>35</v>
       </c>
       <c r="F240">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -4477,13 +5185,16 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>-0.3172368618543162</v>
+        <v>-0.9028654794812018</v>
       </c>
       <c r="C241">
-        <v>3.85580992397304</v>
+        <v>1.464371161181219</v>
       </c>
       <c r="D241">
-        <v>-2.262825863573527</v>
+        <v>-1.347638853939792</v>
+      </c>
+      <c r="E241">
+        <v>35</v>
       </c>
       <c r="F241">
         <v>1</v>
@@ -4494,13 +5205,16 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>0.4791486604733</v>
+        <v>-0.6576346557620869</v>
       </c>
       <c r="C242">
-        <v>1.840334513632441</v>
+        <v>-0.1858003827362421</v>
       </c>
       <c r="D242">
-        <v>-0.9152237715636862</v>
+        <v>-1.026642462303903</v>
+      </c>
+      <c r="E242">
+        <v>35</v>
       </c>
       <c r="F242">
         <v>1</v>
@@ -4511,13 +5225,16 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>-0.08711711139805289</v>
+        <v>-0.814426016660708</v>
       </c>
       <c r="C243">
-        <v>3.488538640069837</v>
+        <v>1.361637712516571</v>
       </c>
       <c r="D243">
-        <v>-2.599449165299646</v>
+        <v>-1.821969685180861</v>
+      </c>
+      <c r="E243">
+        <v>35</v>
       </c>
       <c r="F243">
         <v>1</v>
@@ -4528,13 +5245,16 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>-0.03995660771499976</v>
+        <v>-0.2838831493221281</v>
       </c>
       <c r="C244">
-        <v>1.300440217415953</v>
+        <v>0.4431406367382657</v>
       </c>
       <c r="D244">
-        <v>-2.023181490226702</v>
+        <v>-1.218236970544807</v>
+      </c>
+      <c r="E244">
+        <v>35</v>
       </c>
       <c r="F244">
         <v>1</v>
@@ -4545,13 +5265,16 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>0.4792711005875925</v>
+        <v>-0.2326988457904235</v>
       </c>
       <c r="C245">
-        <v>2.049234736833263</v>
+        <v>0.2901994484601761</v>
       </c>
       <c r="D245">
-        <v>-2.182452909920116</v>
+        <v>-1.221805106064499</v>
+      </c>
+      <c r="E245">
+        <v>35</v>
       </c>
       <c r="F245">
         <v>1</v>
@@ -4562,13 +5285,16 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>0.3981786558581464</v>
+        <v>-0.1724369817794796</v>
       </c>
       <c r="C246">
-        <v>1.316349135251593</v>
+        <v>-0.04373474710014905</v>
       </c>
       <c r="D246">
-        <v>-1.567617870053591</v>
+        <v>-1.151193769147556</v>
+      </c>
+      <c r="E246">
+        <v>35</v>
       </c>
       <c r="F246">
         <v>1</v>
@@ -4579,16 +5305,19 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>1.028380714875731</v>
+        <v>0.3210018059513161</v>
       </c>
       <c r="C247">
-        <v>2.097738044306057</v>
+        <v>0.1103990746849704</v>
       </c>
       <c r="D247">
-        <v>-2.263853500192424</v>
+        <v>-1.688649781865558</v>
+      </c>
+      <c r="E247">
+        <v>35</v>
       </c>
       <c r="F247">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -4596,13 +5325,16 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>0.3830908176740297</v>
+        <v>-0.1549011319319815</v>
       </c>
       <c r="C248">
-        <v>0.05791431890818222</v>
+        <v>-0.620781300418672</v>
       </c>
       <c r="D248">
-        <v>-0.9595119128111209</v>
+        <v>-0.9427066943666924</v>
+      </c>
+      <c r="E248">
+        <v>35</v>
       </c>
       <c r="F248">
         <v>0</v>
@@ -4613,16 +5345,19 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>-0.9831194349381521</v>
+        <v>-0.3123378882301662</v>
       </c>
       <c r="C249">
-        <v>2.151926213866122</v>
+        <v>0.06029634491243349</v>
       </c>
       <c r="D249">
-        <v>-0.8928264913760913</v>
+        <v>0.113505090816501</v>
+      </c>
+      <c r="E249">
+        <v>36</v>
       </c>
       <c r="F249">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -4630,16 +5365,19 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>-0.9539219701273215</v>
+        <v>-0.5221077754155287</v>
       </c>
       <c r="C250">
-        <v>2.166962331761794</v>
+        <v>-0.1014087259220723</v>
       </c>
       <c r="D250">
-        <v>-0.4644391263946774</v>
+        <v>0.6378123594795131</v>
+      </c>
+      <c r="E250">
+        <v>36</v>
       </c>
       <c r="F250">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -4647,13 +5385,16 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>-1.282820149184527</v>
+        <v>-0.8780969328870628</v>
       </c>
       <c r="C251">
-        <v>3.954903183947198</v>
+        <v>0.9004446290699937</v>
       </c>
       <c r="D251">
-        <v>-0.9952039415960989</v>
+        <v>-0.131807977699529</v>
+      </c>
+      <c r="E251">
+        <v>36</v>
       </c>
       <c r="F251">
         <v>1</v>
@@ -4664,13 +5405,16 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>-0.8184984116015428</v>
+        <v>-0.7016011284095925</v>
       </c>
       <c r="C252">
-        <v>0.04581640432840423</v>
+        <v>-0.4359198891356815</v>
       </c>
       <c r="D252">
-        <v>0.1679018291581838</v>
+        <v>0.1410412620315789</v>
+      </c>
+      <c r="E252">
+        <v>36</v>
       </c>
       <c r="F252">
         <v>2</v>
@@ -4681,16 +5425,19 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>-0.3974527185803843</v>
+        <v>-0.7810783725265541</v>
       </c>
       <c r="C253">
-        <v>0.9360649496292572</v>
+        <v>-0.5854605770627279</v>
       </c>
       <c r="D253">
-        <v>0.1787574206805366</v>
+        <v>0.36494669696812</v>
+      </c>
+      <c r="E253">
+        <v>36</v>
       </c>
       <c r="F253">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -4698,13 +5445,16 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>-0.5229067110003164</v>
+        <v>-0.7373531516580609</v>
       </c>
       <c r="C254">
-        <v>2.956006836938997</v>
+        <v>0.2683303654657746</v>
       </c>
       <c r="D254">
-        <v>-0.6908018504307387</v>
+        <v>-0.2548855621790789</v>
+      </c>
+      <c r="E254">
+        <v>36</v>
       </c>
       <c r="F254">
         <v>1</v>
@@ -4715,13 +5465,16 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>-0.673739643393264</v>
+        <v>-0.5920005871052538</v>
       </c>
       <c r="C255">
-        <v>3.349159922031342</v>
+        <v>0.2237949578305876</v>
       </c>
       <c r="D255">
-        <v>-1.458455490372567</v>
+        <v>0.04220138358387271</v>
+      </c>
+      <c r="E255">
+        <v>36</v>
       </c>
       <c r="F255">
         <v>1</v>
@@ -4732,13 +5485,16 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>-1.077526635011231</v>
+        <v>-0.5932121277839043</v>
       </c>
       <c r="C256">
-        <v>2.847182310173142</v>
+        <v>0.2628171351020455</v>
       </c>
       <c r="D256">
-        <v>-1.159605605960791</v>
+        <v>-0.1195850328629195</v>
+      </c>
+      <c r="E256">
+        <v>36</v>
       </c>
       <c r="F256">
         <v>1</v>
@@ -4749,16 +5505,19 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>-0.05647117719959027</v>
+        <v>-0.7524347049779894</v>
       </c>
       <c r="C257">
-        <v>0.8008227159959236</v>
+        <v>-0.6663792416528558</v>
       </c>
       <c r="D257">
-        <v>0.4507938931457117</v>
+        <v>0.2891532204223335</v>
+      </c>
+      <c r="E257">
+        <v>36</v>
       </c>
       <c r="F257">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -4766,13 +5525,16 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>-1.076631442917823</v>
+        <v>-0.6991405281575119</v>
       </c>
       <c r="C258">
-        <v>4.240918727798089</v>
+        <v>0.7330090111959959</v>
       </c>
       <c r="D258">
-        <v>-1.408480634453219</v>
+        <v>0.02189392983875715</v>
+      </c>
+      <c r="E258">
+        <v>36</v>
       </c>
       <c r="F258">
         <v>1</v>
@@ -4783,16 +5545,19 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>-0.7550716962302495</v>
+        <v>-0.9079123095674999</v>
       </c>
       <c r="C259">
-        <v>0.988248277956887</v>
+        <v>-0.1168216418500505</v>
       </c>
       <c r="D259">
-        <v>-0.06243787086682656</v>
+        <v>0.2169551539136357</v>
+      </c>
+      <c r="E259">
+        <v>36</v>
       </c>
       <c r="F259">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -4800,16 +5565,19 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>-2.4471062049656</v>
+        <v>-0.4894465424820729</v>
       </c>
       <c r="C260">
-        <v>2.703671235372852</v>
+        <v>0.1359235105937046</v>
       </c>
       <c r="D260">
-        <v>-0.785373012271539</v>
+        <v>0.8057949901070072</v>
+      </c>
+      <c r="E260">
+        <v>36</v>
       </c>
       <c r="F260">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -4817,13 +5585,16 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>5.554658540902237</v>
+        <v>0.5041443537952389</v>
       </c>
       <c r="C261">
-        <v>11.898732124751</v>
+        <v>5.353564923330643</v>
       </c>
       <c r="D261">
-        <v>-6.816725917099737</v>
+        <v>-1.361364311558631</v>
+      </c>
+      <c r="E261">
+        <v>36</v>
       </c>
       <c r="F261">
         <v>1</v>
@@ -4834,16 +5605,19 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>-0.5177308269250978</v>
+        <v>-0.976927670628286</v>
       </c>
       <c r="C262">
-        <v>2.690088562123879</v>
+        <v>0.04982574632670428</v>
       </c>
       <c r="D262">
-        <v>-0.5830272031456823</v>
+        <v>0.1064770702411758</v>
+      </c>
+      <c r="E262">
+        <v>36</v>
       </c>
       <c r="F262">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:6">
@@ -4851,13 +5625,16 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>-0.2852245811155902</v>
+        <v>-1.035739973341732</v>
       </c>
       <c r="C263">
-        <v>1.238586606387773</v>
+        <v>-0.094185573565224</v>
       </c>
       <c r="D263">
-        <v>-0.1998143805668911</v>
+        <v>-0.5700621869379427</v>
+      </c>
+      <c r="E263">
+        <v>36</v>
       </c>
       <c r="F263">
         <v>1</v>
@@ -4868,16 +5645,19 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>-0.602773196147293</v>
+        <v>-0.893346407594789</v>
       </c>
       <c r="C264">
-        <v>0.8494223721551986</v>
+        <v>-0.1672506521428029</v>
       </c>
       <c r="D264">
-        <v>-0.2619903381541957</v>
+        <v>0.07188008069387158</v>
+      </c>
+      <c r="E264">
+        <v>36</v>
       </c>
       <c r="F264">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:6">
@@ -4885,13 +5665,16 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>-1.046899043146853</v>
+        <v>-0.4152109161108438</v>
       </c>
       <c r="C265">
-        <v>2.533153069002966</v>
+        <v>0.1737545682132305</v>
       </c>
       <c r="D265">
-        <v>-0.8031601655065852</v>
+        <v>0.1171128512851651</v>
+      </c>
+      <c r="E265">
+        <v>36</v>
       </c>
       <c r="F265">
         <v>1</v>
@@ -4902,16 +5685,19 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>-0.7195980542572316</v>
+        <v>-1.212921757757829</v>
       </c>
       <c r="C266">
-        <v>0.9316502169907295</v>
+        <v>-0.1844016663023825</v>
       </c>
       <c r="D266">
-        <v>0.4647579097232602</v>
+        <v>0.04174449037920097</v>
+      </c>
+      <c r="E266">
+        <v>36</v>
       </c>
       <c r="F266">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:6">
@@ -4919,16 +5705,19 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>0.4432416676417523</v>
+        <v>0.05585461185217622</v>
       </c>
       <c r="C267">
-        <v>0.5408640777521299</v>
+        <v>-0.6201382854047282</v>
       </c>
       <c r="D267">
-        <v>-0.528817417925509</v>
+        <v>-0.26987181985416</v>
+      </c>
+      <c r="E267">
+        <v>36</v>
       </c>
       <c r="F267">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:6">
@@ -4936,16 +5725,19 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>-2.652938769534149</v>
+        <v>1.819847583892331</v>
       </c>
       <c r="C268">
-        <v>2.64837696782423</v>
+        <v>-0.6887428976834518</v>
       </c>
       <c r="D268">
-        <v>-2.173637878675563</v>
+        <v>1.521833875034429</v>
+      </c>
+      <c r="E268">
+        <v>36</v>
       </c>
       <c r="F268">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:6">
@@ -4953,16 +5745,19 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>-1.04324915203922</v>
+        <v>-0.3344620659958494</v>
       </c>
       <c r="C269">
-        <v>3.690137484962237</v>
+        <v>0.195377330967264</v>
       </c>
       <c r="D269">
-        <v>-1.075928426010943</v>
+        <v>0.2436809378319885</v>
+      </c>
+      <c r="E269">
+        <v>36</v>
       </c>
       <c r="F269">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:6">
@@ -4970,13 +5765,16 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>-0.5496210939052495</v>
+        <v>-0.6811266151967397</v>
       </c>
       <c r="C270">
-        <v>3.265055852532679</v>
+        <v>0.3812308082062726</v>
       </c>
       <c r="D270">
-        <v>-0.9550811050638957</v>
+        <v>-0.1267921163172949</v>
+      </c>
+      <c r="E270">
+        <v>36</v>
       </c>
       <c r="F270">
         <v>1</v>
@@ -4987,13 +5785,16 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>-0.8110879731972765</v>
+        <v>-1.034735388011068</v>
       </c>
       <c r="C271">
-        <v>0.5078033747018219</v>
+        <v>-0.6412694807694446</v>
       </c>
       <c r="D271">
-        <v>0.6664603041325057</v>
+        <v>0.3595500739549547</v>
+      </c>
+      <c r="E271">
+        <v>36</v>
       </c>
       <c r="F271">
         <v>2</v>
@@ -5004,13 +5805,16 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>-0.3404634762476872</v>
+        <v>-0.7166818251786121</v>
       </c>
       <c r="C272">
-        <v>0.3677048785446683</v>
+        <v>-0.6604777744963748</v>
       </c>
       <c r="D272">
-        <v>0.4301349467545765</v>
+        <v>0.3877708372801166</v>
+      </c>
+      <c r="E272">
+        <v>36</v>
       </c>
       <c r="F272">
         <v>2</v>
@@ -5021,16 +5825,19 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>-1.013630401158288</v>
+        <v>-0.2792424710348683</v>
       </c>
       <c r="C273">
-        <v>2.635087504398389</v>
+        <v>-0.1173639911003815</v>
       </c>
       <c r="D273">
-        <v>-0.8357534441328573</v>
+        <v>0.4256136341917956</v>
+      </c>
+      <c r="E273">
+        <v>36</v>
       </c>
       <c r="F273">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
